--- a/msci/200103~201612(25811월말 리밸런싱)/25종목 미만 정리.xlsx
+++ b/msci/200103~201612(25811월말 리밸런싱)/25종목 미만 정리.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9108" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="raw_data" sheetId="1" r:id="rId1"/>
     <sheet name="12m_rolling" sheetId="2" r:id="rId2"/>
     <sheet name="종목history" sheetId="3" r:id="rId3"/>
-    <sheet name="누적수익률" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="분기별누적수익률" sheetId="4" r:id="rId4"/>
+    <sheet name="월별누적수익률" sheetId="6" r:id="rId5"/>
+    <sheet name="kopis 수익률" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="IQ_CH">110000</definedName>
@@ -146,7 +147,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4211" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4682" uniqueCount="442">
   <si>
     <t>누적수익률</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1448,31 +1449,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>종가지수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>종가지수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Last Update : 2017-07-28 14:30:18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Peer Analysis (To Select)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Period</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1509,6 +1486,30 @@
   </si>
   <si>
     <t>초과수익률 count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Last Update : 2017-07-28 15:46:47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer Analysis (To Select)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Period</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>종가지수</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1630,7 +1631,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1683,6 +1684,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7954,7 +7961,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>누적수익률!$A$24</c:f>
+              <c:f>분기별누적수익률!$A$24</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -7977,7 +7984,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>누적수익률!$B$24:$AM$24</c:f>
+              <c:f>분기별누적수익률!$B$24:$AM$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -8125,7 +8132,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>누적수익률!$A$8</c:f>
+              <c:f>분기별누적수익률!$A$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8148,7 +8155,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>누적수익률!$B$7:$AN$7</c:f>
+              <c:f>분기별누적수익률!$B$7:$AN$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -8274,7 +8281,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>누적수익률!$B$8:$AN$8</c:f>
+              <c:f>분기별누적수익률!$B$8:$AN$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -8410,7 +8417,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>누적수익률!$A$11</c:f>
+              <c:f>분기별누적수익률!$A$11</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -8436,7 +8443,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>누적수익률!$B$7:$AN$7</c:f>
+              <c:f>분기별누적수익률!$B$7:$AN$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -8562,7 +8569,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>누적수익률!$B$11:$AN$11</c:f>
+              <c:f>분기별누적수익률!$B$11:$AN$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="39"/>
@@ -8868,6 +8875,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1534329088"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -68340,9 +68348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
@@ -68828,7 +68834,7 @@
     </row>
     <row r="5" spans="1:67" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B5">
         <v>0.9008616603288635</v>
@@ -68974,7 +68980,7 @@
     </row>
     <row r="7" spans="1:67" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B7" s="1">
         <v>20071130</v>
@@ -69102,155 +69108,155 @@
         <v>100</v>
       </c>
       <c r="C8">
-        <f>B8*B2</f>
+        <f t="shared" ref="C8:AN8" si="0">B8*B2</f>
         <v>95.560812262891901</v>
       </c>
       <c r="D8">
-        <f>C8*C2</f>
+        <f t="shared" si="0"/>
         <v>102.09879156644443</v>
       </c>
       <c r="E8">
-        <f>D8*D2</f>
+        <f t="shared" si="0"/>
         <v>81.64480691738234</v>
       </c>
       <c r="F8">
-        <f>E8*E2</f>
+        <f t="shared" si="0"/>
         <v>56.620480096912026</v>
       </c>
       <c r="G8">
-        <f>F8*F2</f>
+        <f t="shared" si="0"/>
         <v>57.998096867141108</v>
       </c>
       <c r="H8">
-        <f>G8*G2</f>
+        <f t="shared" si="0"/>
         <v>79.118484056860808</v>
       </c>
       <c r="I8">
-        <f>H8*H2</f>
+        <f t="shared" si="0"/>
         <v>83.848941259367734</v>
       </c>
       <c r="J8">
-        <f>I8*I2</f>
+        <f t="shared" si="0"/>
         <v>81.799542265475623</v>
       </c>
       <c r="K8">
-        <f>J8*J2</f>
+        <f t="shared" si="0"/>
         <v>82.929083063833644</v>
       </c>
       <c r="L8">
-        <f>K8*K2</f>
+        <f t="shared" si="0"/>
         <v>87.017105252724662</v>
       </c>
       <c r="M8">
-        <f>L8*L2</f>
+        <f t="shared" si="0"/>
         <v>94.991979431259651</v>
       </c>
       <c r="N8">
-        <f>M8*M2</f>
+        <f t="shared" si="0"/>
         <v>120.99790820417417</v>
       </c>
       <c r="O8">
-        <f>N8*N2</f>
+        <f t="shared" si="0"/>
         <v>111.37587537811903</v>
       </c>
       <c r="P8">
-        <f>O8*O2</f>
+        <f t="shared" si="0"/>
         <v>132.6715954318253</v>
       </c>
       <c r="Q8">
-        <f>P8*P2</f>
+        <f t="shared" si="0"/>
         <v>133.32093216928979</v>
       </c>
       <c r="R8">
-        <f>Q8*Q2</f>
+        <f t="shared" si="0"/>
         <v>132.35246032198694</v>
       </c>
       <c r="S8">
-        <f>R8*R2</f>
+        <f t="shared" si="0"/>
         <v>148.94336620199849</v>
       </c>
       <c r="T8">
-        <f>S8*S2</f>
+        <f t="shared" si="0"/>
         <v>130.48098451708901</v>
       </c>
       <c r="U8">
-        <f>T8*T2</f>
+        <f t="shared" si="0"/>
         <v>145.40155475462504</v>
       </c>
       <c r="V8">
-        <f>U8*U2</f>
+        <f t="shared" si="0"/>
         <v>156.82532321818761</v>
       </c>
       <c r="W8">
-        <f>V8*V2</f>
+        <f t="shared" si="0"/>
         <v>171.52050719754925</v>
       </c>
       <c r="X8">
-        <f>W8*W2</f>
+        <f t="shared" si="0"/>
         <v>209.21223433009567</v>
       </c>
       <c r="Y8">
-        <f>X8*X2</f>
+        <f t="shared" si="0"/>
         <v>195.58621152417808</v>
       </c>
       <c r="Z8">
-        <f>Y8*Y2</f>
+        <f t="shared" si="0"/>
         <v>205.53041698177199</v>
       </c>
       <c r="AA8">
-        <f>Z8*Z2</f>
+        <f t="shared" si="0"/>
         <v>214.39234397209</v>
       </c>
       <c r="AB8">
-        <f>AA8*AA2</f>
+        <f t="shared" si="0"/>
         <v>225.58655856463076</v>
       </c>
       <c r="AC8">
-        <f>AB8*AB2</f>
+        <f t="shared" si="0"/>
         <v>259.41818154616368</v>
       </c>
       <c r="AD8">
-        <f>AC8*AC2</f>
+        <f t="shared" si="0"/>
         <v>262.16063445967194</v>
       </c>
       <c r="AE8">
-        <f>AD8*AD2</f>
+        <f t="shared" si="0"/>
         <v>303.53534055641336</v>
       </c>
       <c r="AF8">
-        <f>AE8*AE2</f>
+        <f t="shared" si="0"/>
         <v>358.8203913431613</v>
       </c>
       <c r="AG8">
-        <f>AF8*AF2</f>
+        <f t="shared" si="0"/>
         <v>350.33836600723225</v>
       </c>
       <c r="AH8">
-        <f>AG8*AG2</f>
+        <f t="shared" si="0"/>
         <v>350.06359306817535</v>
       </c>
       <c r="AI8">
-        <f>AH8*AH2</f>
+        <f t="shared" si="0"/>
         <v>348.74969787150263</v>
       </c>
       <c r="AJ8">
-        <f>AI8*AI2</f>
+        <f t="shared" si="0"/>
         <v>380.66125741173983</v>
       </c>
       <c r="AK8">
-        <f>AJ8*AJ2</f>
+        <f t="shared" si="0"/>
         <v>396.05862703587127</v>
       </c>
       <c r="AL8">
-        <f>AK8*AK2</f>
+        <f t="shared" si="0"/>
         <v>371.98537985072704</v>
       </c>
       <c r="AM8">
-        <f>AL8*AL2</f>
+        <f t="shared" si="0"/>
         <v>393.82722017626162</v>
       </c>
       <c r="AN8">
-        <f>AM8*AM2</f>
+        <f t="shared" si="0"/>
         <v>443.07644381613767</v>
       </c>
     </row>
@@ -69262,155 +69268,155 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <f>B9*B3</f>
+        <f t="shared" ref="C9:AN9" si="1">B9*B3</f>
         <v>97.7437592612076</v>
       </c>
       <c r="D9">
-        <f>C9*C3</f>
+        <f t="shared" si="1"/>
         <v>102.57462213117647</v>
       </c>
       <c r="E9">
-        <f>D9*D3</f>
+        <f t="shared" si="1"/>
         <v>82.952322750359997</v>
       </c>
       <c r="F9">
-        <f>E9*E3</f>
+        <f t="shared" si="1"/>
         <v>58.230074706193498</v>
       </c>
       <c r="G9">
-        <f>F9*F3</f>
+        <f t="shared" si="1"/>
         <v>58.916110346760505</v>
       </c>
       <c r="H9">
-        <f>G9*G3</f>
+        <f t="shared" si="1"/>
         <v>81.384281624164586</v>
       </c>
       <c r="I9">
-        <f>H9*H3</f>
+        <f t="shared" si="1"/>
         <v>86.70445564487558</v>
       </c>
       <c r="J9">
-        <f>I9*I3</f>
+        <f t="shared" si="1"/>
         <v>83.284741477636274</v>
       </c>
       <c r="K9">
-        <f>J9*J3</f>
+        <f t="shared" si="1"/>
         <v>85.711145598665553</v>
       </c>
       <c r="L9">
-        <f>K9*K3</f>
+        <f t="shared" si="1"/>
         <v>90.524858598536994</v>
       </c>
       <c r="M9">
-        <f>L9*L3</f>
+        <f t="shared" si="1"/>
         <v>97.702571850773069</v>
       </c>
       <c r="N9">
-        <f>M9*M3</f>
+        <f t="shared" si="1"/>
         <v>120.73580517762981</v>
       </c>
       <c r="O9">
-        <f>N9*N3</f>
+        <f t="shared" si="1"/>
         <v>111.95721946735823</v>
       </c>
       <c r="P9">
-        <f>O9*O3</f>
+        <f t="shared" si="1"/>
         <v>127.24877922575695</v>
       </c>
       <c r="Q9">
-        <f>P9*P3</f>
+        <f t="shared" si="1"/>
         <v>126.96714792127794</v>
       </c>
       <c r="R9">
-        <f>Q9*Q3</f>
+        <f t="shared" si="1"/>
         <v>126.90785071358958</v>
       </c>
       <c r="S9">
-        <f>R9*R3</f>
+        <f t="shared" si="1"/>
         <v>143.19434546899777</v>
       </c>
       <c r="T9">
-        <f>S9*S3</f>
+        <f t="shared" si="1"/>
         <v>127.80611053887756</v>
       </c>
       <c r="U9">
-        <f>T9*T3</f>
+        <f t="shared" si="1"/>
         <v>142.34293132018649</v>
       </c>
       <c r="V9">
-        <f>U9*U3</f>
+        <f t="shared" si="1"/>
         <v>162.55824377987435</v>
       </c>
       <c r="W9">
-        <f>V9*V3</f>
+        <f t="shared" si="1"/>
         <v>177.44343176582058</v>
       </c>
       <c r="X9">
-        <f>W9*W3</f>
+        <f t="shared" si="1"/>
         <v>213.79887790413292</v>
       </c>
       <c r="Y9">
-        <f>X9*X3</f>
+        <f t="shared" si="1"/>
         <v>199.02388551339916</v>
       </c>
       <c r="Z9">
-        <f>Y9*Y3</f>
+        <f t="shared" si="1"/>
         <v>206.8117401583375</v>
       </c>
       <c r="AA9">
-        <f>Z9*Z3</f>
+        <f t="shared" si="1"/>
         <v>220.06706672817756</v>
       </c>
       <c r="AB9">
-        <f>AA9*AA3</f>
+        <f t="shared" si="1"/>
         <v>230.1430582066389</v>
       </c>
       <c r="AC9">
-        <f>AB9*AB3</f>
+        <f t="shared" si="1"/>
         <v>282.22307682539878</v>
       </c>
       <c r="AD9">
-        <f>AC9*AC3</f>
+        <f t="shared" si="1"/>
         <v>282.48275594839981</v>
       </c>
       <c r="AE9">
-        <f>AD9*AD3</f>
+        <f t="shared" si="1"/>
         <v>326.38985599540206</v>
       </c>
       <c r="AF9">
-        <f>AE9*AE3</f>
+        <f t="shared" si="1"/>
         <v>405.52553781752107</v>
       </c>
       <c r="AG9">
-        <f>AF9*AF3</f>
+        <f t="shared" si="1"/>
         <v>394.02641671311625</v>
       </c>
       <c r="AH9">
-        <f>AG9*AG3</f>
+        <f t="shared" si="1"/>
         <v>390.43467385734249</v>
       </c>
       <c r="AI9">
-        <f>AH9*AH3</f>
+        <f t="shared" si="1"/>
         <v>394.62213405269773</v>
       </c>
       <c r="AJ9">
-        <f>AI9*AI3</f>
+        <f t="shared" si="1"/>
         <v>435.2826720229055</v>
       </c>
       <c r="AK9">
-        <f>AJ9*AJ3</f>
+        <f t="shared" si="1"/>
         <v>447.36195361361393</v>
       </c>
       <c r="AL9">
-        <f>AK9*AK3</f>
+        <f t="shared" si="1"/>
         <v>414.02771433274677</v>
       </c>
       <c r="AM9">
-        <f>AL9*AL3</f>
+        <f t="shared" si="1"/>
         <v>431.37243244491538</v>
       </c>
       <c r="AN9">
-        <f>AM9*AM3</f>
+        <f t="shared" si="1"/>
         <v>480.8307330840974</v>
       </c>
     </row>
@@ -69422,321 +69428,321 @@
         <v>100</v>
       </c>
       <c r="C10">
-        <f>B10*B4</f>
+        <f t="shared" ref="C10:AN10" si="2">B10*B4</f>
         <v>96.107310837797002</v>
       </c>
       <c r="D10">
-        <f>C10*C4</f>
+        <f t="shared" si="2"/>
         <v>100.62681305694908</v>
       </c>
       <c r="E10">
-        <f>D10*D4</f>
+        <f t="shared" si="2"/>
         <v>82.041956605170498</v>
       </c>
       <c r="F10">
-        <f>E10*E4</f>
+        <f t="shared" si="2"/>
         <v>58.573922830809479</v>
       </c>
       <c r="G10">
-        <f>F10*F4</f>
+        <f t="shared" si="2"/>
         <v>58.44535653197994</v>
       </c>
       <c r="H10">
-        <f>G10*G4</f>
+        <f t="shared" si="2"/>
         <v>79.989247609850793</v>
       </c>
       <c r="I10">
-        <f>H10*H4</f>
+        <f t="shared" si="2"/>
         <v>84.135793791518566</v>
       </c>
       <c r="J10">
-        <f>I10*I4</f>
+        <f t="shared" si="2"/>
         <v>79.562321477355468</v>
       </c>
       <c r="K10">
-        <f>J10*J4</f>
+        <f t="shared" si="2"/>
         <v>82.750084555452787</v>
       </c>
       <c r="L10">
-        <f>K10*K4</f>
+        <f t="shared" si="2"/>
         <v>88.537636299353892</v>
       </c>
       <c r="M10">
-        <f>L10*L4</f>
+        <f t="shared" si="2"/>
         <v>94.380827906503399</v>
       </c>
       <c r="N10">
-        <f>M10*M4</f>
+        <f t="shared" si="2"/>
         <v>114.63215686198187</v>
       </c>
       <c r="O10">
-        <f>N10*N4</f>
+        <f t="shared" si="2"/>
         <v>107.1145967256429</v>
       </c>
       <c r="P10">
-        <f>O10*O4</f>
+        <f t="shared" si="2"/>
         <v>119.0498032416896</v>
       </c>
       <c r="Q10">
-        <f>P10*P4</f>
+        <f t="shared" si="2"/>
         <v>116.38858140496744</v>
       </c>
       <c r="R10">
-        <f>Q10*Q4</f>
+        <f t="shared" si="2"/>
         <v>115.74925670610021</v>
       </c>
       <c r="S10">
-        <f>R10*R4</f>
+        <f t="shared" si="2"/>
         <v>134.14231327906313</v>
       </c>
       <c r="T10">
-        <f>S10*S4</f>
+        <f t="shared" si="2"/>
         <v>117.26996331723761</v>
       </c>
       <c r="U10">
-        <f>T10*T4</f>
+        <f t="shared" si="2"/>
         <v>130.29922655768178</v>
       </c>
       <c r="V10">
-        <f>U10*U4</f>
+        <f t="shared" si="2"/>
         <v>147.91233640943102</v>
       </c>
       <c r="W10">
-        <f>V10*V4</f>
+        <f t="shared" si="2"/>
         <v>161.61051946948257</v>
       </c>
       <c r="X10">
-        <f>W10*W4</f>
+        <f t="shared" si="2"/>
         <v>194.34200220077688</v>
       </c>
       <c r="Y10">
-        <f>X10*X4</f>
+        <f t="shared" si="2"/>
         <v>180.5989298234901</v>
       </c>
       <c r="Z10">
-        <f>Y10*Y4</f>
+        <f t="shared" si="2"/>
         <v>185.94795284854274</v>
       </c>
       <c r="AA10">
-        <f>Z10*Z4</f>
+        <f t="shared" si="2"/>
         <v>200.68535922271312</v>
       </c>
       <c r="AB10">
-        <f>AA10*AA4</f>
+        <f t="shared" si="2"/>
         <v>213.38216770407891</v>
       </c>
       <c r="AC10">
-        <f>AB10*AB4</f>
+        <f t="shared" si="2"/>
         <v>256.49337946147909</v>
       </c>
       <c r="AD10">
-        <f>AC10*AC4</f>
+        <f t="shared" si="2"/>
         <v>254.83118212214131</v>
       </c>
       <c r="AE10">
-        <f>AD10*AD4</f>
+        <f t="shared" si="2"/>
         <v>294.79659187977563</v>
       </c>
       <c r="AF10">
-        <f>AE10*AE4</f>
+        <f t="shared" si="2"/>
         <v>362.95388864184281</v>
       </c>
       <c r="AG10">
-        <f>AF10*AF4</f>
+        <f t="shared" si="2"/>
         <v>349.91995262522539</v>
       </c>
       <c r="AH10">
-        <f>AG10*AG4</f>
+        <f t="shared" si="2"/>
         <v>351.00058983538014</v>
       </c>
       <c r="AI10">
-        <f>AH10*AH4</f>
+        <f t="shared" si="2"/>
         <v>352.24439832383092</v>
       </c>
       <c r="AJ10">
-        <f>AI10*AI4</f>
+        <f t="shared" si="2"/>
         <v>384.55370280672753</v>
       </c>
       <c r="AK10">
-        <f>AJ10*AJ4</f>
+        <f t="shared" si="2"/>
         <v>392.69901542701513</v>
       </c>
       <c r="AL10">
-        <f>AK10*AK4</f>
+        <f t="shared" si="2"/>
         <v>368.70086546006672</v>
       </c>
       <c r="AM10">
-        <f>AL10*AL4</f>
+        <f t="shared" si="2"/>
         <v>381.54636650624587</v>
       </c>
       <c r="AN10">
-        <f>AM10*AM4</f>
+        <f t="shared" si="2"/>
         <v>422.15966136320105</v>
       </c>
     </row>
     <row r="11" spans="1:67" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B11">
         <v>100</v>
       </c>
       <c r="C11">
-        <f>B11*B5</f>
+        <f t="shared" ref="C11:AN11" si="3">B11*B5</f>
         <v>90.086166032886354</v>
       </c>
       <c r="D11">
-        <f>C11*C5</f>
+        <f t="shared" si="3"/>
         <v>97.927485700441366</v>
       </c>
       <c r="E11">
-        <f>D11*D5</f>
+        <f t="shared" si="3"/>
         <v>78.117725132461842</v>
       </c>
       <c r="F11">
-        <f>E11*E5</f>
+        <f t="shared" si="3"/>
         <v>57.327272918795359</v>
       </c>
       <c r="G11">
-        <f>F11*F5</f>
+        <f t="shared" si="3"/>
         <v>56.632572445830213</v>
       </c>
       <c r="H11">
-        <f>G11*G5</f>
+        <f t="shared" si="3"/>
         <v>74.134916204059692</v>
       </c>
       <c r="I11">
-        <f>H11*H5</f>
+        <f t="shared" si="3"/>
         <v>85.474492536841751</v>
       </c>
       <c r="J11">
-        <f>I11*I5</f>
+        <f t="shared" si="3"/>
         <v>83.907597990161463</v>
       </c>
       <c r="K11">
-        <f>J11*J5</f>
+        <f t="shared" si="3"/>
         <v>85.400756322880326</v>
       </c>
       <c r="L11">
-        <f>K11*K5</f>
+        <f t="shared" si="3"/>
         <v>88.052099902036147</v>
       </c>
       <c r="M11">
-        <f>L11*L5</f>
+        <f t="shared" si="3"/>
         <v>93.006646793001366</v>
       </c>
       <c r="N11">
-        <f>M11*M5</f>
+        <f t="shared" si="3"/>
         <v>101.65853812688947</v>
       </c>
       <c r="O11">
-        <f>N11*N5</f>
+        <f t="shared" si="3"/>
         <v>104.08656631519069</v>
       </c>
       <c r="P11">
-        <f>O11*O5</f>
+        <f t="shared" si="3"/>
         <v>114.07466318350835</v>
       </c>
       <c r="Q11">
-        <f>P11*P5</f>
+        <f t="shared" si="3"/>
         <v>99.467519197749979</v>
       </c>
       <c r="R11">
-        <f>Q11*Q5</f>
+        <f t="shared" si="3"/>
         <v>98.673801523179506</v>
       </c>
       <c r="S11">
-        <f>R11*R5</f>
+        <f t="shared" si="3"/>
         <v>108.85624598400976</v>
       </c>
       <c r="T11">
-        <f>S11*S5</f>
+        <f t="shared" si="3"/>
         <v>99.811445967155763</v>
       </c>
       <c r="U11">
-        <f>T11*T5</f>
+        <f t="shared" si="3"/>
         <v>102.56602024585759</v>
       </c>
       <c r="V11">
-        <f>U11*U5</f>
+        <f t="shared" si="3"/>
         <v>104.11500742629009</v>
       </c>
       <c r="W11">
-        <f>V11*V5</f>
+        <f t="shared" si="3"/>
         <v>109.44824244467149</v>
       </c>
       <c r="X11">
-        <f>W11*W5</f>
+        <f t="shared" si="3"/>
         <v>107.91452919427383</v>
       </c>
       <c r="Y11">
-        <f>X11*X5</f>
+        <f t="shared" si="3"/>
         <v>103.78056102725078</v>
       </c>
       <c r="Z11">
-        <f>Y11*Y5</f>
+        <f t="shared" si="3"/>
         <v>110.77865441943263</v>
       </c>
       <c r="AA11">
-        <f>Z11*Z5</f>
+        <f t="shared" si="3"/>
         <v>106.84061390664993</v>
       </c>
       <c r="AB11">
-        <f>AA11*AA5</f>
+        <f t="shared" si="3"/>
         <v>107.89820188975381</v>
       </c>
       <c r="AC11">
-        <f>AB11*AB5</f>
+        <f t="shared" si="3"/>
         <v>110.83817007784435</v>
       </c>
       <c r="AD11">
-        <f>AC11*AC5</f>
+        <f t="shared" si="3"/>
         <v>105.74563112932276</v>
       </c>
       <c r="AE11">
-        <f>AD11*AD5</f>
+        <f t="shared" si="3"/>
         <v>105.56234396890436</v>
       </c>
       <c r="AF11">
-        <f>AE11*AE5</f>
+        <f t="shared" si="3"/>
         <v>110.8276363329927</v>
       </c>
       <c r="AG11">
-        <f>AF11*AF5</f>
+        <f t="shared" si="3"/>
         <v>100.222788703612</v>
       </c>
       <c r="AH11">
-        <f>AG11*AG5</f>
+        <f t="shared" si="3"/>
         <v>104.27986053321814</v>
       </c>
       <c r="AI11">
-        <f>AH11*AH5</f>
+        <f t="shared" si="3"/>
         <v>100.16959329211126</v>
       </c>
       <c r="AJ11">
-        <f>AI11*AI5</f>
+        <f t="shared" si="3"/>
         <v>104.33042250850599</v>
       </c>
       <c r="AK11">
-        <f>AJ11*AJ5</f>
+        <f t="shared" si="3"/>
         <v>108.74248153961213</v>
       </c>
       <c r="AL11">
-        <f>AK11*AK5</f>
+        <f t="shared" si="3"/>
         <v>106.70999547048969</v>
       </c>
       <c r="AM11">
-        <f>AL11*AL5</f>
+        <f t="shared" si="3"/>
         <v>113.29411269000241</v>
       </c>
       <c r="AN11">
-        <f>AM11*AM5</f>
+        <f t="shared" si="3"/>
         <v>127.36824918626819</v>
       </c>
     </row>
     <row r="13" spans="1:67" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B13" s="1">
         <v>20080229</v>
@@ -69862,151 +69868,151 @@
         <v>1.0547464623000555</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:AM14" si="0">C2-C5+1</f>
+        <f t="shared" ref="C14:AM14" si="4">C2-C5+1</f>
         <v>0.98137451026447375</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0019548692353544</v>
       </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.95964020105417813</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0364488647652939</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0551057214387896</v>
       </c>
       <c r="H14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.90683088782122612</v>
       </c>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.99389016018630927</v>
       </c>
       <c r="J14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.99601337482764407</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0182494956118591</v>
       </c>
       <c r="L14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0353788456403248</v>
       </c>
       <c r="M14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1807452911583465</v>
       </c>
       <c r="N14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.89659353872461689</v>
       </c>
       <c r="O14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0952463408770323</v>
       </c>
       <c r="P14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1329432937464903</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0007154524501072</v>
       </c>
       <c r="R14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0221609780704672</v>
       </c>
       <c r="S14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.95913368207524352</v>
       </c>
       <c r="T14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0867527543423541</v>
       </c>
       <c r="U14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0634646883907806</v>
       </c>
       <c r="V14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0424796924945534</v>
       </c>
       <c r="W14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.2337636951264139</v>
       </c>
       <c r="X14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.97317765636223785</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.98341144066364272</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0786660806540778</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0423149413864177</v>
       </c>
       <c r="AB14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1227241926839011</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0565172672275969</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1595552470793955</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.1322586041589218</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0720491162542787</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.95873516045372009</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0356624296475201</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0499649121936288</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.99815972079541027</v>
       </c>
       <c r="AK14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.95790878968406823</v>
       </c>
       <c r="AL14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.99701589668580048</v>
       </c>
       <c r="AM14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>1.0008263209430077</v>
       </c>
     </row>
@@ -70019,151 +70025,151 @@
         <v>1.0765759322832125</v>
       </c>
       <c r="C15">
-        <f t="shared" ref="C15:AM15" si="1">C3-C5+1</f>
+        <f t="shared" ref="C15:AM15" si="5">C3-C5+1</f>
         <v>0.9623813078032537</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0109922985086333</v>
       </c>
       <c r="E15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.96811296534400715</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0238996155805939</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0723078662330694</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.91241238133606606</v>
       </c>
       <c r="I15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.97889067791898021</v>
       </c>
       <c r="J15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0113385677995239</v>
       </c>
       <c r="K15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0251161396851689</v>
       </c>
       <c r="L15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0230216133696248</v>
       </c>
       <c r="M15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1427240442600866</v>
       </c>
       <c r="N15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.90340679579595495</v>
       </c>
       <c r="O15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0406244351076823</v>
       </c>
       <c r="P15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1258357437150153</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0075126389833351</v>
       </c>
       <c r="R15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0251402443950872</v>
       </c>
       <c r="S15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.97562541408155057</v>
       </c>
       <c r="T15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0861434236265239</v>
       </c>
       <c r="U15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1269160370080005</v>
       </c>
       <c r="V15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0403438767581634</v>
       </c>
       <c r="W15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.2188978477646439</v>
       </c>
       <c r="X15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.96920083085303588</v>
       </c>
       <c r="Y15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.97169861161645277</v>
       </c>
       <c r="Z15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0996424155368278</v>
       </c>
       <c r="AA15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0358872585490175</v>
       </c>
       <c r="AB15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1990464998009911</v>
       </c>
       <c r="AC15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0468658348650168</v>
       </c>
       <c r="AD15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1571661342842154</v>
       </c>
       <c r="AE15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.1925790314034617</v>
       </c>
       <c r="AF15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0673316581903696</v>
       </c>
       <c r="AG15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.95040398030882411</v>
       </c>
       <c r="AH15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.050140857724029</v>
       </c>
       <c r="AI15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>1.0614987912303289</v>
       </c>
       <c r="AJ15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.98546114505144033</v>
       </c>
       <c r="AK15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.94417791308103116</v>
       </c>
       <c r="AL15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.98019161445722047</v>
       </c>
       <c r="AM15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0.9904268165658876</v>
       </c>
     </row>
@@ -70176,157 +70182,157 @@
         <v>1.0602114480491065</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:AM16" si="2">C4-C5+1</f>
+        <f t="shared" ref="C16:AM16" si="6">C4-C5+1</f>
         <v>0.95998314230203374</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.0175991990088562</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.98009339885816116</v>
       </c>
       <c r="F16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.0099232087634777</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.0595651235980894</v>
       </c>
       <c r="H16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.89888014961691609</v>
       </c>
       <c r="I16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.96397349709628821</v>
       </c>
       <c r="J16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.022270970476564</v>
       </c>
       <c r="K16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.0388942280852089</v>
       </c>
       <c r="L16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.0097283417245047</v>
       </c>
       <c r="M16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.1215459267102366</v>
       </c>
       <c r="N16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.91053599169516897</v>
       </c>
       <c r="O16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.0154651313245824</v>
       </c>
       <c r="P16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.1056951242593964</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.002486647855815</v>
       </c>
       <c r="R16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.0557113284886872</v>
       </c>
       <c r="S16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.9573099219812905</v>
       </c>
       <c r="T16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.0835070837601839</v>
       </c>
       <c r="U16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.1200719812431905</v>
       </c>
       <c r="V16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.0413856860755735</v>
       </c>
       <c r="W16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.2165462573058341</v>
       </c>
       <c r="X16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.96759188535628393</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.96218660356555263</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.1148042754933478</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.0533684935697576</v>
       </c>
       <c r="AB16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.1747899458842812</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.0394652459887808</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.1585642075318554</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.1813225921209818</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.0597770327368328</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.96260770894480818</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.0429593419414291</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>1.0501862647826787</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.97889192413054027</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.95758002187735214</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.97313886385159054</v>
       </c>
       <c r="AM16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.98221738261948754</v>
       </c>
     </row>
     <row r="18" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B18" s="1">
         <v>20071130</v>
@@ -70458,151 +70464,151 @@
         <v>105.47464623000555</v>
       </c>
       <c r="D19">
-        <f t="shared" ref="D19:AN19" si="3">C19*C14</f>
+        <f t="shared" ref="D19:AN19" si="7">C19*C14</f>
         <v>103.51012928929032</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>103.71247805658551</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>99.52666329404876</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>103.15429718499448</v>
       </c>
       <c r="H19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>108.83868915088489</v>
       </c>
       <c r="I19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>98.698285111995389</v>
       </c>
       <c r="J19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>98.09525440007512</v>
       </c>
       <c r="K19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>97.704185389595125</v>
       </c>
       <c r="L19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>99.487237492122802</v>
       </c>
       <c r="M19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>103.00698111053894</v>
       </c>
       <c r="N19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>121.6250079027056</v>
       </c>
       <c r="O19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>109.04819623289632</v>
       </c>
       <c r="P19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>119.43463790332027</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>135.31267205360706</v>
       </c>
       <c r="R19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>135.40948183635837</v>
       </c>
       <c r="S19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>138.41028839386723</v>
       </c>
       <c r="T19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>132.75396954430622</v>
       </c>
       <c r="U19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>144.27074205215575</v>
       </c>
       <c r="V19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>153.4268397404025</v>
       </c>
       <c r="W19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>159.94436471298593</v>
       </c>
       <c r="X19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>197.33355042294033</v>
       </c>
       <c r="Y19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>192.04060212223658</v>
       </c>
       <c r="Z19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>188.85492519894208</v>
       </c>
       <c r="AA19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>203.71140197656189</v>
       </c>
       <c r="AB19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>212.33143801094508</v>
       </c>
       <c r="AC19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>238.3896423222501</v>
       </c>
       <c r="AD19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>251.86277344166794</v>
       </c>
       <c r="AE19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>292.0488004882551</v>
       </c>
       <c r="AF19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>330.67476718711913</v>
       </c>
       <c r="AG19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>354.49959193054042</v>
       </c>
       <c r="AH19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>339.87122315030496</v>
       </c>
       <c r="AI19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>351.99185673511931</v>
       </c>
       <c r="AJ19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>369.57909894976189</v>
       </c>
       <c r="AK19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>368.89897021951361</v>
       </c>
       <c r="AL19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>353.37156607867342</v>
       </c>
       <c r="AM19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>352.31706881719418</v>
       </c>
       <c r="AN19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>352.6081957897369</v>
       </c>
     </row>
@@ -70618,151 +70624,151 @@
         <v>107.65759322832125</v>
       </c>
       <c r="D20">
-        <f t="shared" ref="D20:AN20" si="4">C20*C15</f>
+        <f t="shared" ref="D20:AN20" si="8">C20*C15</f>
         <v>103.60765536602251</v>
       </c>
       <c r="E20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>104.74654164158544</v>
       </c>
       <c r="F20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>101.4064850381648</v>
       </c>
       <c r="G20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>103.83006104795619</v>
       </c>
       <c r="H20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>111.33779121318324</v>
       </c>
       <c r="I20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>101.58597921351824</v>
       </c>
       <c r="J20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>99.441568059384309</v>
       </c>
       <c r="K20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>100.56909302091661</v>
       </c>
       <c r="L20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>103.0950004092407</v>
       </c>
       <c r="M20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>105.46841364900355</v>
       </c>
       <c r="N20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>120.52129218668505</v>
       </c>
       <c r="O20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>108.87975439956119</v>
       </c>
       <c r="P20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>113.30293291670655</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>127.5604917453728</v>
       </c>
       <c r="R20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>128.51880766839247</v>
       </c>
       <c r="S20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>131.74980190254107</v>
       </c>
       <c r="T20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>128.53845503632888</v>
       </c>
       <c r="U20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>139.61119762082225</v>
       </c>
       <c r="V20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>157.33009754479781</v>
       </c>
       <c r="W20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>163.67740361049496</v>
       </c>
       <c r="X20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>199.50603498853727</v>
       </c>
       <c r="Y20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>193.36141487108517</v>
       </c>
       <c r="Z20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>187.88901837042638</v>
       </c>
       <c r="AA20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>206.6107340136991</v>
       </c>
       <c r="AB20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>214.025426844251</v>
       </c>
       <c r="AC20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>256.62643892601227</v>
       </c>
       <c r="AD20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>268.6534512347161</v>
       </c>
       <c r="AE20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>310.87667562738943</v>
       </c>
       <c r="AF20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>370.74500470564021</v>
       </c>
       <c r="AG20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>395.70788063826734</v>
       </c>
       <c r="AH20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>376.08234479817838</v>
       </c>
       <c r="AI20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>394.93943614122304</v>
       </c>
       <c r="AJ20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>419.22773407309592</v>
       </c>
       <c r="AK20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>413.13264285699381</v>
       </c>
       <c r="AL20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>390.07071655836739</v>
       </c>
       <c r="AM20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>382.34404541583098</v>
       </c>
       <c r="AN20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>378.6837957341246</v>
       </c>
     </row>
@@ -70778,157 +70784,157 @@
         <v>106.02114480491065</v>
       </c>
       <c r="D21">
-        <f t="shared" ref="D21:AN21" si="5">C21*C16</f>
+        <f t="shared" ref="D21:AN21" si="9">C21*C16</f>
         <v>101.77851174027707</v>
       </c>
       <c r="E21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>103.56973202321942</v>
       </c>
       <c r="F21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>101.50801067746605</v>
       </c>
       <c r="G21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>102.51529585858387</v>
       </c>
       <c r="H21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>108.62163212709513</v>
       </c>
       <c r="I21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>97.63782893803689</v>
       </c>
       <c r="J21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>94.120279410288589</v>
       </c>
       <c r="K21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>96.216429374281077</v>
       </c>
       <c r="L21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>99.958693123908759</v>
       </c>
       <c r="M21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>100.93112544895304</v>
       </c>
       <c r="N21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>113.19889262555319</v>
       </c>
       <c r="O21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>103.07166595560302</v>
       </c>
       <c r="P21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>104.6656828054499</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>115.72833515526651</v>
       </c>
       <c r="R21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>116.01611077173739</v>
       </c>
       <c r="S21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>122.47952242892157</v>
       </c>
       <c r="T21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>117.25086206073662</v>
       </c>
       <c r="U21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>127.04213961979633</v>
       </c>
       <c r="V21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>142.29634102531929</v>
       </c>
       <c r="W21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>148.1853727246959</v>
       </c>
       <c r="X21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>180.27436057569884</v>
       </c>
       <c r="Y21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>174.43200843083898</v>
       </c>
       <c r="Z21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>167.83614174518681</v>
       </c>
       <c r="AA21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>187.1044483998418</v>
       </c>
       <c r="AB21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>197.08993095114181</v>
       </c>
       <c r="AC21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>231.5392693164286</v>
       </c>
       <c r="AD21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>240.67702353606401</v>
       </c>
       <c r="AE21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>278.8397850441857</v>
       </c>
       <c r="AF21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>329.39973765485485</v>
       </c>
       <c r="AG21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>349.09027655615324</v>
       </c>
       <c r="AH21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>336.03699133062815</v>
       </c>
       <c r="AI21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>350.47291934616965</v>
       </c>
       <c r="AJ21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>368.06184607563495</v>
       </c>
       <c r="AK21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>360.29276870401702</v>
       </c>
       <c r="AL21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>345.00915733784439</v>
       </c>
       <c r="AM21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>335.74181939014454</v>
       </c>
       <c r="AN21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>329.77145107729251</v>
       </c>
     </row>
     <row r="23" spans="1:40" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B23" s="1">
         <v>20080229</v>
@@ -71050,155 +71056,155 @@
         <v>20</v>
       </c>
       <c r="B24">
-        <f>IF(B14&gt;=1,1,-1)</f>
+        <f t="shared" ref="B24:C26" si="10">IF(B14&gt;=1,1,-1)</f>
         <v>1</v>
       </c>
       <c r="C24">
-        <f>IF(C14&gt;=1,1,-1)</f>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="D24">
-        <f t="shared" ref="D24:AM24" si="6">IF(D14&gt;=1,1,-1)</f>
+        <f t="shared" ref="D24:AM24" si="11">IF(D14&gt;=1,1,-1)</f>
         <v>1</v>
       </c>
       <c r="E24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="F24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="G24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="H24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="I24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="J24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="K24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="L24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="M24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="N24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="O24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="P24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="R24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="S24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="T24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="U24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="V24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="W24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="X24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AB24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-1</v>
       </c>
       <c r="AM24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
@@ -71207,155 +71213,155 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <f>IF(B15&gt;=1,1,-1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C25">
-        <f>IF(C15&gt;=1,1,-1)</f>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="D25">
-        <f t="shared" ref="D25:AM25" si="7">IF(D15&gt;=1,1,-1)</f>
+        <f t="shared" ref="D25:AM25" si="12">IF(D15&gt;=1,1,-1)</f>
         <v>1</v>
       </c>
       <c r="E25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="F25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="G25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="H25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="I25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="J25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="K25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="L25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="M25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="N25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="O25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="P25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="R25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="S25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="T25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="U25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="V25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="W25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="X25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AB25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>-1</v>
       </c>
     </row>
@@ -71364,155 +71370,155 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <f>IF(B16&gt;=1,1,-1)</f>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="C26">
-        <f>IF(C16&gt;=1,1,-1)</f>
+        <f t="shared" si="10"/>
         <v>-1</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26:AM26" si="8">IF(D16&gt;=1,1,-1)</f>
+        <f t="shared" ref="D26:AM26" si="13">IF(D16&gt;=1,1,-1)</f>
         <v>1</v>
       </c>
       <c r="E26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="F26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="G26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="H26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="I26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="J26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="K26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="L26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="M26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="N26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="O26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="P26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="R26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="S26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="T26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="U26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="V26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="W26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="X26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AB26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
       <c r="AM26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="13"/>
         <v>-1</v>
       </c>
     </row>
@@ -71524,14 +71530,1217 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:GO4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:197" x14ac:dyDescent="0.4">
+      <c r="C1" s="2">
+        <v>20010330</v>
+      </c>
+      <c r="D1" s="2">
+        <v>20010430</v>
+      </c>
+      <c r="E1" s="2">
+        <v>20010531</v>
+      </c>
+      <c r="F1" s="2">
+        <v>20010629</v>
+      </c>
+      <c r="G1" s="2">
+        <v>20010731</v>
+      </c>
+      <c r="H1" s="2">
+        <v>20010831</v>
+      </c>
+      <c r="I1" s="2">
+        <v>20010928</v>
+      </c>
+      <c r="J1" s="2">
+        <v>20011031</v>
+      </c>
+      <c r="K1" s="2">
+        <v>20011130</v>
+      </c>
+      <c r="L1" s="2">
+        <v>20011228</v>
+      </c>
+      <c r="M1" s="2">
+        <v>20020131</v>
+      </c>
+      <c r="N1" s="2">
+        <v>20020228</v>
+      </c>
+      <c r="O1" s="2">
+        <v>20020329</v>
+      </c>
+      <c r="P1" s="2">
+        <v>20020430</v>
+      </c>
+      <c r="Q1" s="2">
+        <v>20020531</v>
+      </c>
+      <c r="R1" s="2">
+        <v>20020628</v>
+      </c>
+      <c r="S1" s="2">
+        <v>20020731</v>
+      </c>
+      <c r="T1" s="2">
+        <v>20020830</v>
+      </c>
+      <c r="U1" s="2">
+        <v>20020930</v>
+      </c>
+      <c r="V1" s="2">
+        <v>20021031</v>
+      </c>
+      <c r="W1" s="2">
+        <v>20021129</v>
+      </c>
+      <c r="X1" s="2">
+        <v>20021230</v>
+      </c>
+      <c r="Y1" s="2">
+        <v>20030130</v>
+      </c>
+      <c r="Z1" s="2">
+        <v>20030228</v>
+      </c>
+      <c r="AA1" s="2">
+        <v>20030331</v>
+      </c>
+      <c r="AB1" s="2">
+        <v>20030430</v>
+      </c>
+      <c r="AC1" s="2">
+        <v>20030530</v>
+      </c>
+      <c r="AD1" s="2">
+        <v>20030630</v>
+      </c>
+      <c r="AE1" s="2">
+        <v>20030731</v>
+      </c>
+      <c r="AF1" s="2">
+        <v>20030829</v>
+      </c>
+      <c r="AG1" s="2">
+        <v>20030930</v>
+      </c>
+      <c r="AH1" s="2">
+        <v>20031031</v>
+      </c>
+      <c r="AI1" s="2">
+        <v>20031128</v>
+      </c>
+      <c r="AJ1" s="2">
+        <v>20031230</v>
+      </c>
+      <c r="AK1" s="2">
+        <v>20040130</v>
+      </c>
+      <c r="AL1" s="2">
+        <v>20040227</v>
+      </c>
+      <c r="AM1" s="2">
+        <v>20040331</v>
+      </c>
+      <c r="AN1" s="2">
+        <v>20040430</v>
+      </c>
+      <c r="AO1" s="2">
+        <v>20040531</v>
+      </c>
+      <c r="AP1" s="2">
+        <v>20040630</v>
+      </c>
+      <c r="AQ1" s="2">
+        <v>20040730</v>
+      </c>
+      <c r="AR1" s="2">
+        <v>20040831</v>
+      </c>
+      <c r="AS1" s="2">
+        <v>20040930</v>
+      </c>
+      <c r="AT1" s="2">
+        <v>20041029</v>
+      </c>
+      <c r="AU1" s="2">
+        <v>20041130</v>
+      </c>
+      <c r="AV1" s="2">
+        <v>20041230</v>
+      </c>
+      <c r="AW1" s="2">
+        <v>20050131</v>
+      </c>
+      <c r="AX1" s="2">
+        <v>20050228</v>
+      </c>
+      <c r="AY1" s="2">
+        <v>20050331</v>
+      </c>
+      <c r="AZ1" s="2">
+        <v>20050429</v>
+      </c>
+      <c r="BA1" s="2">
+        <v>20050531</v>
+      </c>
+      <c r="BB1" s="2">
+        <v>20050630</v>
+      </c>
+      <c r="BC1" s="2">
+        <v>20050729</v>
+      </c>
+      <c r="BD1" s="2">
+        <v>20050831</v>
+      </c>
+      <c r="BE1" s="2">
+        <v>20050930</v>
+      </c>
+      <c r="BF1" s="2">
+        <v>20051031</v>
+      </c>
+      <c r="BG1" s="2">
+        <v>20051130</v>
+      </c>
+      <c r="BH1" s="2">
+        <v>20051229</v>
+      </c>
+      <c r="BI1" s="2">
+        <v>20060131</v>
+      </c>
+      <c r="BJ1" s="2">
+        <v>20060228</v>
+      </c>
+      <c r="BK1" s="2">
+        <v>20060331</v>
+      </c>
+      <c r="BL1" s="2">
+        <v>20060428</v>
+      </c>
+      <c r="BM1" s="2">
+        <v>20060530</v>
+      </c>
+      <c r="BN1" s="2">
+        <v>20060630</v>
+      </c>
+      <c r="BO1" s="2">
+        <v>20060731</v>
+      </c>
+      <c r="BP1" s="2">
+        <v>20060831</v>
+      </c>
+      <c r="BQ1" s="2">
+        <v>20060929</v>
+      </c>
+      <c r="BR1" s="2">
+        <v>20061031</v>
+      </c>
+      <c r="BS1" s="2">
+        <v>20061130</v>
+      </c>
+      <c r="BT1" s="2">
+        <v>20061228</v>
+      </c>
+      <c r="BU1" s="2">
+        <v>20070131</v>
+      </c>
+      <c r="BV1" s="2">
+        <v>20070228</v>
+      </c>
+      <c r="BW1" s="2">
+        <v>20070330</v>
+      </c>
+      <c r="BX1" s="2">
+        <v>20070430</v>
+      </c>
+      <c r="BY1" s="2">
+        <v>20070531</v>
+      </c>
+      <c r="BZ1" s="2">
+        <v>20070629</v>
+      </c>
+      <c r="CA1" s="2">
+        <v>20070731</v>
+      </c>
+      <c r="CB1" s="2">
+        <v>20070831</v>
+      </c>
+      <c r="CC1" s="2">
+        <v>20070928</v>
+      </c>
+      <c r="CD1" s="2">
+        <v>20071031</v>
+      </c>
+      <c r="CE1" s="2">
+        <v>20071130</v>
+      </c>
+      <c r="CF1" s="2">
+        <v>20071228</v>
+      </c>
+      <c r="CG1" s="2">
+        <v>20080131</v>
+      </c>
+      <c r="CH1" s="2">
+        <v>20080229</v>
+      </c>
+      <c r="CI1" s="2">
+        <v>20080331</v>
+      </c>
+      <c r="CJ1" s="2">
+        <v>20080430</v>
+      </c>
+      <c r="CK1" s="2">
+        <v>20080530</v>
+      </c>
+      <c r="CL1" s="2">
+        <v>20080630</v>
+      </c>
+      <c r="CM1" s="2">
+        <v>20080731</v>
+      </c>
+      <c r="CN1" s="2">
+        <v>20080829</v>
+      </c>
+      <c r="CO1" s="2">
+        <v>20080930</v>
+      </c>
+      <c r="CP1" s="2">
+        <v>20081031</v>
+      </c>
+      <c r="CQ1" s="2">
+        <v>20081128</v>
+      </c>
+      <c r="CR1" s="2">
+        <v>20081230</v>
+      </c>
+      <c r="CS1" s="2">
+        <v>20090130</v>
+      </c>
+      <c r="CT1" s="2">
+        <v>20090227</v>
+      </c>
+      <c r="CU1" s="2">
+        <v>20090331</v>
+      </c>
+      <c r="CV1" s="2">
+        <v>20090430</v>
+      </c>
+      <c r="CW1" s="2">
+        <v>20090529</v>
+      </c>
+      <c r="CX1" s="2">
+        <v>20090630</v>
+      </c>
+      <c r="CY1" s="2">
+        <v>20090731</v>
+      </c>
+      <c r="CZ1" s="2">
+        <v>20090831</v>
+      </c>
+      <c r="DA1" s="2">
+        <v>20090930</v>
+      </c>
+      <c r="DB1" s="2">
+        <v>20091030</v>
+      </c>
+      <c r="DC1" s="2">
+        <v>20091130</v>
+      </c>
+      <c r="DD1" s="2">
+        <v>20091230</v>
+      </c>
+      <c r="DE1" s="2">
+        <v>20100129</v>
+      </c>
+      <c r="DF1" s="2">
+        <v>20100226</v>
+      </c>
+      <c r="DG1" s="2">
+        <v>20100331</v>
+      </c>
+      <c r="DH1" s="2">
+        <v>20100430</v>
+      </c>
+      <c r="DI1" s="2">
+        <v>20100531</v>
+      </c>
+      <c r="DJ1" s="2">
+        <v>20100630</v>
+      </c>
+      <c r="DK1" s="2">
+        <v>20100730</v>
+      </c>
+      <c r="DL1" s="2">
+        <v>20100831</v>
+      </c>
+      <c r="DM1" s="2">
+        <v>20100930</v>
+      </c>
+      <c r="DN1" s="2">
+        <v>20101029</v>
+      </c>
+      <c r="DO1" s="2">
+        <v>20101130</v>
+      </c>
+      <c r="DP1" s="2">
+        <v>20101230</v>
+      </c>
+      <c r="DQ1" s="2">
+        <v>20110131</v>
+      </c>
+      <c r="DR1" s="2">
+        <v>20110228</v>
+      </c>
+      <c r="DS1" s="2">
+        <v>20110331</v>
+      </c>
+      <c r="DT1" s="2">
+        <v>20110429</v>
+      </c>
+      <c r="DU1" s="2">
+        <v>20110531</v>
+      </c>
+      <c r="DV1" s="2">
+        <v>20110630</v>
+      </c>
+      <c r="DW1" s="2">
+        <v>20110729</v>
+      </c>
+      <c r="DX1" s="2">
+        <v>20110831</v>
+      </c>
+      <c r="DY1" s="2">
+        <v>20110930</v>
+      </c>
+      <c r="DZ1" s="2">
+        <v>20111031</v>
+      </c>
+      <c r="EA1" s="2">
+        <v>20111130</v>
+      </c>
+      <c r="EB1" s="2">
+        <v>20111229</v>
+      </c>
+      <c r="EC1" s="2">
+        <v>20120131</v>
+      </c>
+      <c r="ED1" s="2">
+        <v>20120229</v>
+      </c>
+      <c r="EE1" s="2">
+        <v>20120330</v>
+      </c>
+      <c r="EF1" s="2">
+        <v>20120430</v>
+      </c>
+      <c r="EG1" s="2">
+        <v>20120531</v>
+      </c>
+      <c r="EH1" s="2">
+        <v>20120629</v>
+      </c>
+      <c r="EI1" s="2">
+        <v>20120731</v>
+      </c>
+      <c r="EJ1" s="2">
+        <v>20120831</v>
+      </c>
+      <c r="EK1" s="2">
+        <v>20120928</v>
+      </c>
+      <c r="EL1" s="2">
+        <v>20121031</v>
+      </c>
+      <c r="EM1" s="2">
+        <v>20121130</v>
+      </c>
+      <c r="EN1" s="2">
+        <v>20121228</v>
+      </c>
+      <c r="EO1" s="2">
+        <v>20130131</v>
+      </c>
+      <c r="EP1" s="2">
+        <v>20130228</v>
+      </c>
+      <c r="EQ1" s="2">
+        <v>20130329</v>
+      </c>
+      <c r="ER1" s="2">
+        <v>20130430</v>
+      </c>
+      <c r="ES1" s="2">
+        <v>20130531</v>
+      </c>
+      <c r="ET1" s="2">
+        <v>20130628</v>
+      </c>
+      <c r="EU1" s="2">
+        <v>20130731</v>
+      </c>
+      <c r="EV1" s="2">
+        <v>20130830</v>
+      </c>
+      <c r="EW1" s="2">
+        <v>20130930</v>
+      </c>
+      <c r="EX1" s="2">
+        <v>20131031</v>
+      </c>
+      <c r="EY1" s="2">
+        <v>20131129</v>
+      </c>
+      <c r="EZ1" s="2">
+        <v>20131230</v>
+      </c>
+      <c r="FA1" s="2">
+        <v>20140129</v>
+      </c>
+      <c r="FB1" s="2">
+        <v>20140228</v>
+      </c>
+      <c r="FC1" s="2">
+        <v>20140331</v>
+      </c>
+      <c r="FD1" s="2">
+        <v>20140430</v>
+      </c>
+      <c r="FE1" s="2">
+        <v>20140530</v>
+      </c>
+      <c r="FF1" s="2">
+        <v>20140630</v>
+      </c>
+      <c r="FG1" s="2">
+        <v>20140731</v>
+      </c>
+      <c r="FH1" s="2">
+        <v>20140829</v>
+      </c>
+      <c r="FI1" s="2">
+        <v>20140930</v>
+      </c>
+      <c r="FJ1" s="2">
+        <v>20141031</v>
+      </c>
+      <c r="FK1" s="2">
+        <v>20141128</v>
+      </c>
+      <c r="FL1" s="2">
+        <v>20141230</v>
+      </c>
+      <c r="FM1" s="2">
+        <v>20150130</v>
+      </c>
+      <c r="FN1" s="2">
+        <v>20150227</v>
+      </c>
+      <c r="FO1" s="2">
+        <v>20150331</v>
+      </c>
+      <c r="FP1" s="2">
+        <v>20150430</v>
+      </c>
+      <c r="FQ1" s="2">
+        <v>20150529</v>
+      </c>
+      <c r="FR1" s="2">
+        <v>20150630</v>
+      </c>
+      <c r="FS1" s="2">
+        <v>20150731</v>
+      </c>
+      <c r="FT1" s="2">
+        <v>20150831</v>
+      </c>
+      <c r="FU1" s="2">
+        <v>20150930</v>
+      </c>
+      <c r="FV1" s="2">
+        <v>20151030</v>
+      </c>
+      <c r="FW1" s="2">
+        <v>20151130</v>
+      </c>
+      <c r="FX1" s="2">
+        <v>20151230</v>
+      </c>
+      <c r="FY1" s="2">
+        <v>20160129</v>
+      </c>
+      <c r="FZ1" s="2">
+        <v>20160229</v>
+      </c>
+      <c r="GA1" s="2">
+        <v>20160331</v>
+      </c>
+      <c r="GB1" s="2">
+        <v>20160429</v>
+      </c>
+      <c r="GC1" s="2">
+        <v>20160531</v>
+      </c>
+      <c r="GD1" s="2">
+        <v>20160630</v>
+      </c>
+      <c r="GE1" s="2">
+        <v>20160729</v>
+      </c>
+      <c r="GF1" s="2">
+        <v>20160831</v>
+      </c>
+      <c r="GG1" s="2">
+        <v>20160930</v>
+      </c>
+      <c r="GH1" s="2">
+        <v>20161031</v>
+      </c>
+      <c r="GI1" s="2">
+        <v>20161130</v>
+      </c>
+      <c r="GJ1" s="2">
+        <v>20161229</v>
+      </c>
+      <c r="GK1" s="2">
+        <v>20170131</v>
+      </c>
+      <c r="GL1" s="2">
+        <v>20170228</v>
+      </c>
+      <c r="GM1" s="2">
+        <v>20170331</v>
+      </c>
+      <c r="GN1" s="2">
+        <v>20170428</v>
+      </c>
+      <c r="GO1" s="2">
+        <v>20170531</v>
+      </c>
+    </row>
+    <row r="2" spans="2:197" x14ac:dyDescent="0.4">
+      <c r="B2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="2:197" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>0.91587901566115404</v>
+      </c>
+      <c r="D3">
+        <v>1.03982717125424</v>
+      </c>
+      <c r="E3">
+        <v>1.2113915986185599</v>
+      </c>
+      <c r="F3">
+        <v>1.0811778976781701</v>
+      </c>
+      <c r="G3">
+        <v>0.88057251990403995</v>
+      </c>
+      <c r="H3">
+        <v>1.0083279339359099</v>
+      </c>
+      <c r="I3">
+        <v>0.96961412959065996</v>
+      </c>
+      <c r="J3">
+        <v>1.0727191527109501</v>
+      </c>
+      <c r="K3">
+        <v>1.21758389765139</v>
+      </c>
+      <c r="L3">
+        <v>1.0274969092019901</v>
+      </c>
+      <c r="M3">
+        <v>1.0850284537666399</v>
+      </c>
+      <c r="N3">
+        <v>1.1299960988331099</v>
+      </c>
+      <c r="O3">
+        <v>1.14086196408267</v>
+      </c>
+      <c r="P3">
+        <v>0.88607788133194099</v>
+      </c>
+      <c r="Q3">
+        <v>0.88372775465106801</v>
+      </c>
+      <c r="R3">
+        <v>0.930972211864876</v>
+      </c>
+      <c r="S3">
+        <v>0.96864287859849996</v>
+      </c>
+      <c r="T3">
+        <v>1.0637518042359899</v>
+      </c>
+      <c r="U3">
+        <v>0.86511740440130502</v>
+      </c>
+      <c r="V3">
+        <v>1.0036050325875601</v>
+      </c>
+      <c r="W3">
+        <v>1.1073600786481199</v>
+      </c>
+      <c r="X3">
+        <v>0.86076771537336905</v>
+      </c>
+      <c r="Y3">
+        <v>0.92768219021006604</v>
+      </c>
+      <c r="Z3">
+        <v>1.04308435465821</v>
+      </c>
+      <c r="AA3">
+        <v>0.92685609419945603</v>
+      </c>
+      <c r="AB3">
+        <v>1.1274640982822901</v>
+      </c>
+      <c r="AC3">
+        <v>1.1255848339429999</v>
+      </c>
+      <c r="AD3">
+        <v>1.03238240221566</v>
+      </c>
+      <c r="AE3">
+        <v>1.01616694564418</v>
+      </c>
+      <c r="AF3">
+        <v>1.11007017580201</v>
+      </c>
+      <c r="AG3">
+        <v>0.95200789606293601</v>
+      </c>
+      <c r="AH3">
+        <v>1.09221626378938</v>
+      </c>
+      <c r="AI3">
+        <v>1.0627910074432501</v>
+      </c>
+      <c r="AJ3">
+        <v>1.01944542137994</v>
+      </c>
+      <c r="AK3">
+        <v>0.974880863099989</v>
+      </c>
+      <c r="AL3">
+        <v>1.02418488331999</v>
+      </c>
+      <c r="AM3">
+        <v>1.04274945946196</v>
+      </c>
+      <c r="AN3">
+        <v>1.0310046498440399</v>
+      </c>
+      <c r="AO3">
+        <v>0.91417086845292495</v>
+      </c>
+      <c r="AP3">
+        <v>0.98498506158749899</v>
+      </c>
+      <c r="AQ3">
+        <v>0.96427851930739095</v>
+      </c>
+      <c r="AR3">
+        <v>1.12514732798243</v>
+      </c>
+      <c r="AS3">
+        <v>1.064308722956</v>
+      </c>
+      <c r="AT3">
+        <v>1.09895755723286</v>
+      </c>
+      <c r="AU3">
+        <v>1.0909946598276801</v>
+      </c>
+      <c r="AV3">
+        <v>0.99770509596377899</v>
+      </c>
+      <c r="AW3">
+        <v>1.0547864631469099</v>
+      </c>
+      <c r="AX3">
+        <v>1.1921979852767299</v>
+      </c>
+      <c r="AY3">
+        <v>0.993694154801958</v>
+      </c>
+      <c r="AZ3">
+        <v>0.95332295808859802</v>
+      </c>
+      <c r="BA3">
+        <v>1.02867566030922</v>
+      </c>
+      <c r="BB3">
+        <v>1.1571976856996</v>
+      </c>
+      <c r="BC3">
+        <v>1.08582465373699</v>
+      </c>
+      <c r="BD3">
+        <v>0.99613168237129301</v>
+      </c>
+      <c r="BE3">
+        <v>1.18384091612707</v>
+      </c>
+      <c r="BF3">
+        <v>1.0391072155336301</v>
+      </c>
+      <c r="BG3">
+        <v>1.0883066840086899</v>
+      </c>
+      <c r="BH3">
+        <v>0.97101921463548002</v>
+      </c>
+      <c r="BI3">
+        <v>0.93933934807029096</v>
+      </c>
+      <c r="BJ3">
+        <v>0.96449795093562196</v>
+      </c>
+      <c r="BK3">
+        <v>1.0157527113987701</v>
+      </c>
+      <c r="BL3">
+        <v>1.0760227081687199</v>
+      </c>
+      <c r="BM3">
+        <v>0.91858691632671396</v>
+      </c>
+      <c r="BN3">
+        <v>0.93488942746000603</v>
+      </c>
+      <c r="BO3">
+        <v>0.97043239312667995</v>
+      </c>
+      <c r="BP3">
+        <v>1.0268686397398299</v>
+      </c>
+      <c r="BQ3">
+        <v>1.0288569317602001</v>
+      </c>
+      <c r="BR3">
+        <v>1.04111715261536</v>
+      </c>
+      <c r="BS3">
+        <v>1.1123838595339399</v>
+      </c>
+      <c r="BT3">
+        <v>0.96002041876426203</v>
+      </c>
+      <c r="BU3">
+        <v>0.92678491174363098</v>
+      </c>
+      <c r="BV3">
+        <v>1.0344110114307701</v>
+      </c>
+      <c r="BW3">
+        <v>1.0879925168949001</v>
+      </c>
+      <c r="BX3">
+        <v>1.12670763272209</v>
+      </c>
+      <c r="BY3">
+        <v>1.26335920705931</v>
+      </c>
+      <c r="BZ3">
+        <v>1.0182696456792399</v>
+      </c>
+      <c r="CA3">
+        <v>1.1366379283133401</v>
+      </c>
+      <c r="CB3">
+        <v>0.95697354183153305</v>
+      </c>
+      <c r="CC3">
+        <v>0.99072474588630699</v>
+      </c>
+      <c r="CD3">
+        <v>0.98728937215605705</v>
+      </c>
+      <c r="CE3">
+        <v>0.95742063868850502</v>
+      </c>
+      <c r="CF3">
+        <v>1.06281603821843</v>
+      </c>
+      <c r="CG3">
+        <v>0.86709219669983695</v>
+      </c>
+      <c r="CH3">
+        <v>1.0552388656326701</v>
+      </c>
+      <c r="CI3">
+        <v>0.930941780667632</v>
+      </c>
+      <c r="CJ3">
+        <v>1.0588033202487499</v>
+      </c>
+      <c r="CK3">
+        <v>1.0599247760267101</v>
+      </c>
+      <c r="CL3">
+        <v>0.958107439563471</v>
+      </c>
+      <c r="CM3">
+        <v>0.88293874535742201</v>
+      </c>
+      <c r="CN3">
+        <v>0.94862228602228404</v>
+      </c>
+      <c r="CO3">
+        <v>1.0030202726642801</v>
+      </c>
+      <c r="CP3">
+        <v>0.70381797852924499</v>
+      </c>
+      <c r="CQ3">
+        <v>0.98660424630168897</v>
+      </c>
+      <c r="CR3">
+        <v>1.05614837895963</v>
+      </c>
+      <c r="CS3">
+        <v>1.0179885232289401</v>
+      </c>
+      <c r="CT3">
+        <v>0.93489821565543596</v>
+      </c>
+      <c r="CU3">
+        <v>1.1953804617564301</v>
+      </c>
+      <c r="CV3">
+        <v>1.13535367098366</v>
+      </c>
+      <c r="CW3">
+        <v>1.0103068231279499</v>
+      </c>
+      <c r="CX3">
+        <v>0.96801172430525795</v>
+      </c>
+      <c r="CY3">
+        <v>1.0376870273744001</v>
+      </c>
+      <c r="CZ3">
+        <v>1.05438556102513</v>
+      </c>
+      <c r="DA3">
+        <v>0.99296825741859696</v>
+      </c>
+      <c r="DB3">
+        <v>0.95441364014880203</v>
+      </c>
+      <c r="DC3">
+        <v>1.00806826869493</v>
+      </c>
+      <c r="DD3">
+        <v>1.1061640278384901</v>
+      </c>
+      <c r="DE3">
+        <v>0.92295115994071397</v>
+      </c>
+      <c r="DF3">
+        <v>1.00372639206789</v>
+      </c>
+      <c r="DG3">
+        <v>1.0594929147783601</v>
+      </c>
+      <c r="DH3">
+        <v>1.02365583202143</v>
+      </c>
+      <c r="DI3">
+        <v>0.96915652622894799</v>
+      </c>
+      <c r="DJ3">
+        <v>1.0640430377526799</v>
+      </c>
+      <c r="DK3">
+        <v>1.0158823544031701</v>
+      </c>
+      <c r="DL3">
+        <v>0.99598546666810805</v>
+      </c>
+      <c r="DM3">
+        <v>1.0853492362428201</v>
+      </c>
+      <c r="DN3">
+        <v>1.07877926819431</v>
+      </c>
+      <c r="DO3">
+        <v>1.04974757989229</v>
+      </c>
+      <c r="DP3">
+        <v>1.0351903172422301</v>
+      </c>
+      <c r="DQ3">
+        <v>0.97886216572027196</v>
+      </c>
+      <c r="DR3">
+        <v>0.90884747621239004</v>
+      </c>
+      <c r="DS3">
+        <v>1.11185214150004</v>
+      </c>
+      <c r="DT3">
+        <v>1.04218392917572</v>
+      </c>
+      <c r="DU3">
+        <v>0.97283560027065796</v>
+      </c>
+      <c r="DV3">
+        <v>1.0157028695636701</v>
+      </c>
+      <c r="DW3">
+        <v>1.11351119607051</v>
+      </c>
+      <c r="DX3">
+        <v>0.87916155553056496</v>
+      </c>
+      <c r="DY3">
+        <v>0.91935301556962401</v>
+      </c>
+      <c r="DZ3">
+        <v>1.0683191350344701</v>
+      </c>
+      <c r="EA3">
+        <v>1.01381490479865</v>
+      </c>
+      <c r="EB3">
+        <v>1.0105989082531699</v>
+      </c>
+      <c r="EC3">
+        <v>1.0572605307210099</v>
+      </c>
+      <c r="ED3">
+        <v>1.0526535142964999</v>
+      </c>
+      <c r="EE3">
+        <v>0.96844508351368996</v>
+      </c>
+      <c r="EF3">
+        <v>0.958304325574732</v>
+      </c>
+      <c r="EG3">
+        <v>0.95766394822080703</v>
+      </c>
+      <c r="EH3">
+        <v>1.0568158904045899</v>
+      </c>
+      <c r="EI3">
+        <v>0.98110787150433798</v>
+      </c>
+      <c r="EJ3">
+        <v>1.0678537206277501</v>
+      </c>
+      <c r="EK3">
+        <v>1.1079092944936899</v>
+      </c>
+      <c r="EL3">
+        <v>0.98813109640600105</v>
+      </c>
+      <c r="EM3">
+        <v>1.04030696518646</v>
+      </c>
+      <c r="EN3">
+        <v>1.00963194248004</v>
+      </c>
+      <c r="EO3">
+        <v>1.02095280290459</v>
+      </c>
+      <c r="EP3">
+        <v>1.05112578546786</v>
+      </c>
+      <c r="EQ3">
+        <v>1.0801409955896</v>
+      </c>
+      <c r="ER3">
+        <v>1.10244475197809</v>
+      </c>
+      <c r="ES3">
+        <v>1.0078768716386299</v>
+      </c>
+      <c r="ET3">
+        <v>0.92082748396675795</v>
+      </c>
+      <c r="EU3">
+        <v>1.0113765717143</v>
+      </c>
+      <c r="EV3">
+        <v>0.99455874029920899</v>
+      </c>
+      <c r="EW3">
+        <v>1.01302128021148</v>
+      </c>
+      <c r="EX3">
+        <v>1.0123789720466401</v>
+      </c>
+      <c r="EY3">
+        <v>1.0075445227706501</v>
+      </c>
+      <c r="EZ3">
+        <v>1.01056200710182</v>
+      </c>
+      <c r="FA3">
+        <v>1.0072570924839399</v>
+      </c>
+      <c r="FB3">
+        <v>1.0372002512448399</v>
+      </c>
+      <c r="FC3">
+        <v>1.0135904325660301</v>
+      </c>
+      <c r="FD3">
+        <v>0.99686964646102005</v>
+      </c>
+      <c r="FE3">
+        <v>1.0285604689644501</v>
+      </c>
+      <c r="FF3">
+        <v>1.0110216637587199</v>
+      </c>
+      <c r="FG3">
+        <v>1.0806760741700701</v>
+      </c>
+      <c r="FH3">
+        <v>1.11868046381544</v>
+      </c>
+      <c r="FI3">
+        <v>1.0336865302804199</v>
+      </c>
+      <c r="FJ3">
+        <v>0.97660413286209902</v>
+      </c>
+      <c r="FK3">
+        <v>0.98655536633302698</v>
+      </c>
+      <c r="FL3">
+        <v>1.0299572973486</v>
+      </c>
+      <c r="FM3">
+        <v>1.0728545912974501</v>
+      </c>
+      <c r="FN3">
+        <v>1.0414996074685601</v>
+      </c>
+      <c r="FO3">
+        <v>1.0853826887358999</v>
+      </c>
+      <c r="FP3">
+        <v>1.12080639354654</v>
+      </c>
+      <c r="FQ3">
+        <v>1.01539540752618</v>
+      </c>
+      <c r="FR3">
+        <v>1.03207610490006</v>
+      </c>
+      <c r="FS3">
+        <v>1.0093503764379399</v>
+      </c>
+      <c r="FT3">
+        <v>0.92745793258603304</v>
+      </c>
+      <c r="FU3">
+        <v>1.0038733878286801</v>
+      </c>
+      <c r="FV3">
+        <v>0.99457443589675398</v>
+      </c>
+      <c r="FW3">
+        <v>0.98810995071767704</v>
+      </c>
+      <c r="FX3">
+        <v>1.0288478999237001</v>
+      </c>
+      <c r="FY3">
+        <v>0.97196972432883599</v>
+      </c>
+      <c r="FZ3">
+        <v>1.0064323298250499</v>
+      </c>
+      <c r="GA3">
+        <v>1.06050276657022</v>
+      </c>
+      <c r="GB3">
+        <v>1.0178130774599801</v>
+      </c>
+      <c r="GC3">
+        <v>1.0180376327478899</v>
+      </c>
+      <c r="GD3">
+        <v>0.98185587200036195</v>
+      </c>
+      <c r="GE3">
+        <v>1.0290693117355201</v>
+      </c>
+      <c r="GF3">
+        <v>1.0109338281883999</v>
+      </c>
+      <c r="GG3">
+        <v>0.99546311814736099</v>
+      </c>
+      <c r="GH3">
+        <v>0.93417070677187097</v>
+      </c>
+      <c r="GI3">
+        <v>0.98937969141636495</v>
+      </c>
+      <c r="GJ3">
+        <v>1.0654390343854301</v>
+      </c>
+      <c r="GK3">
+        <v>0.96820724376501199</v>
+      </c>
+      <c r="GL3">
+        <v>1.0042644306919599</v>
+      </c>
+      <c r="GM3">
+        <v>1.0248296866208999</v>
+      </c>
+      <c r="GN3">
+        <v>1.0312423034840099</v>
+      </c>
+      <c r="GO3">
+        <v>1.04860646831788</v>
+      </c>
+    </row>
+    <row r="4" spans="2:197" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP15"/>
+  <dimension ref="A1:GQ15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="3" ySplit="13" topLeftCell="AA14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="13" topLeftCell="D14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
-      <selection pane="bottomRight" activeCell="E15" sqref="E15:AP15"/>
+      <selection pane="bottomRight" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -71539,20 +72748,20 @@
     <col min="1" max="4" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:199" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>416</v>
       </c>
       <c r="B1" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.4">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:199" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.4">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="4" spans="1:199" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>423</v>
       </c>
@@ -71563,25 +72772,25 @@
         <v>418</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:199" x14ac:dyDescent="0.4">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:199" x14ac:dyDescent="0.4">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:199" x14ac:dyDescent="0.4">
       <c r="A7" s="12"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:199" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="10" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>420</v>
@@ -71703,132 +72912,1074 @@
       <c r="AP9" s="10" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AQ9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="AR9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="AS9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="AT9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="AU9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="AV9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="AW9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="AX9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="AY9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="AZ9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BA9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BB9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BC9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BD9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BE9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BF9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BG9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BH9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BI9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BJ9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BK9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BL9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BM9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BN9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BO9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BP9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BQ9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BR9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BS9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BT9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BU9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BV9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BW9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BX9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BY9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="BZ9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CA9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CB9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CC9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CD9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CE9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CF9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CG9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CH9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CI9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CJ9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CK9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CL9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CM9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CN9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CO9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CP9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CQ9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CR9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CS9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CT9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CU9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CV9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CW9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CX9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CY9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="CZ9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DA9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DB9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DC9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DD9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DE9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DF9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DG9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DH9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DI9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DJ9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DK9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DL9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DM9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DN9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DO9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DP9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DQ9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DR9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DS9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DT9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DU9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DV9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DW9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DX9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DY9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="DZ9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EA9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EB9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EC9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="ED9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EE9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EF9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EG9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EH9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EI9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EJ9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EK9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EL9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EM9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EN9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EO9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EP9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EQ9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="ER9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="ES9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="ET9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EU9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EV9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EW9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EX9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EY9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="EZ9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FA9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FB9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FC9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FD9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FE9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FF9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FG9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FH9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FI9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FJ9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FK9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FL9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FM9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FN9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FO9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FP9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FQ9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FR9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FS9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FT9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FU9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FV9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FW9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FX9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FY9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="FZ9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="GA9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="GB9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="GC9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="GD9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="GE9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="GF9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="GG9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="GH9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="GI9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="GJ9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="GK9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="GL9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="GM9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="GN9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="GO9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="GP9" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="GQ9" s="10" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="10" spans="1:199" x14ac:dyDescent="0.4">
       <c r="A10" s="2"/>
       <c r="B10" s="2" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="1">
+        <v>20010228</v>
+      </c>
+      <c r="E10" s="2">
+        <v>20010330</v>
+      </c>
+      <c r="F10" s="2">
+        <v>20010430</v>
+      </c>
+      <c r="G10" s="2">
+        <v>20010531</v>
+      </c>
+      <c r="H10" s="2">
+        <v>20010629</v>
+      </c>
+      <c r="I10" s="2">
+        <v>20010731</v>
+      </c>
+      <c r="J10" s="2">
+        <v>20010831</v>
+      </c>
+      <c r="K10" s="2">
+        <v>20010928</v>
+      </c>
+      <c r="L10" s="2">
+        <v>20011031</v>
+      </c>
+      <c r="M10" s="2">
+        <v>20011130</v>
+      </c>
+      <c r="N10" s="2">
+        <v>20011228</v>
+      </c>
+      <c r="O10" s="2">
+        <v>20020131</v>
+      </c>
+      <c r="P10" s="2">
+        <v>20020228</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>20020329</v>
+      </c>
+      <c r="R10" s="2">
+        <v>20020430</v>
+      </c>
+      <c r="S10" s="2">
+        <v>20020531</v>
+      </c>
+      <c r="T10" s="2">
+        <v>20020628</v>
+      </c>
+      <c r="U10" s="2">
+        <v>20020731</v>
+      </c>
+      <c r="V10" s="2">
+        <v>20020830</v>
+      </c>
+      <c r="W10" s="2">
+        <v>20020930</v>
+      </c>
+      <c r="X10" s="2">
+        <v>20021031</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>20021129</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>20021230</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>20030130</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>20030228</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>20030331</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>20030430</v>
+      </c>
+      <c r="AE10" s="2">
+        <v>20030530</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>20030630</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>20030731</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>20030829</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>20030930</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>20031031</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>20031128</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>20031230</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>20040130</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>20040227</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>20040331</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>20040430</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>20040531</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>20040630</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>20040730</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>20040831</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>20040930</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>20041029</v>
+      </c>
+      <c r="AW10" s="2">
+        <v>20041130</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>20041230</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>20050131</v>
+      </c>
+      <c r="AZ10" s="2">
+        <v>20050228</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>20050331</v>
+      </c>
+      <c r="BB10" s="2">
+        <v>20050429</v>
+      </c>
+      <c r="BC10" s="2">
+        <v>20050531</v>
+      </c>
+      <c r="BD10" s="2">
+        <v>20050630</v>
+      </c>
+      <c r="BE10" s="2">
+        <v>20050729</v>
+      </c>
+      <c r="BF10" s="2">
+        <v>20050831</v>
+      </c>
+      <c r="BG10" s="2">
+        <v>20050930</v>
+      </c>
+      <c r="BH10" s="2">
+        <v>20051031</v>
+      </c>
+      <c r="BI10" s="2">
+        <v>20051130</v>
+      </c>
+      <c r="BJ10" s="2">
+        <v>20051229</v>
+      </c>
+      <c r="BK10" s="2">
+        <v>20060131</v>
+      </c>
+      <c r="BL10" s="2">
+        <v>20060228</v>
+      </c>
+      <c r="BM10" s="2">
+        <v>20060331</v>
+      </c>
+      <c r="BN10" s="2">
+        <v>20060428</v>
+      </c>
+      <c r="BO10" s="2">
+        <v>20060530</v>
+      </c>
+      <c r="BP10" s="2">
+        <v>20060630</v>
+      </c>
+      <c r="BQ10" s="2">
+        <v>20060731</v>
+      </c>
+      <c r="BR10" s="2">
+        <v>20060831</v>
+      </c>
+      <c r="BS10" s="2">
+        <v>20060929</v>
+      </c>
+      <c r="BT10" s="2">
+        <v>20061031</v>
+      </c>
+      <c r="BU10" s="2">
+        <v>20061130</v>
+      </c>
+      <c r="BV10" s="2">
+        <v>20061228</v>
+      </c>
+      <c r="BW10" s="2">
+        <v>20070131</v>
+      </c>
+      <c r="BX10" s="2">
+        <v>20070228</v>
+      </c>
+      <c r="BY10" s="2">
+        <v>20070330</v>
+      </c>
+      <c r="BZ10" s="2">
+        <v>20070430</v>
+      </c>
+      <c r="CA10" s="2">
+        <v>20070531</v>
+      </c>
+      <c r="CB10" s="2">
+        <v>20070629</v>
+      </c>
+      <c r="CC10" s="2">
+        <v>20070731</v>
+      </c>
+      <c r="CD10" s="2">
+        <v>20070831</v>
+      </c>
+      <c r="CE10" s="2">
+        <v>20070928</v>
+      </c>
+      <c r="CF10" s="2">
+        <v>20071031</v>
+      </c>
+      <c r="CG10" s="2">
         <v>20071130</v>
       </c>
-      <c r="E10" s="1">
+      <c r="CH10" s="2">
+        <v>20071228</v>
+      </c>
+      <c r="CI10" s="2">
+        <v>20080131</v>
+      </c>
+      <c r="CJ10" s="2">
         <v>20080229</v>
       </c>
-      <c r="F10" s="1">
+      <c r="CK10" s="2">
+        <v>20080331</v>
+      </c>
+      <c r="CL10" s="2">
+        <v>20080430</v>
+      </c>
+      <c r="CM10" s="2">
         <v>20080530</v>
       </c>
-      <c r="G10" s="1">
+      <c r="CN10" s="2">
+        <v>20080630</v>
+      </c>
+      <c r="CO10" s="2">
+        <v>20080731</v>
+      </c>
+      <c r="CP10" s="2">
         <v>20080829</v>
       </c>
-      <c r="H10" s="1">
+      <c r="CQ10" s="2">
+        <v>20080930</v>
+      </c>
+      <c r="CR10" s="2">
+        <v>20081031</v>
+      </c>
+      <c r="CS10" s="2">
         <v>20081128</v>
       </c>
-      <c r="I10" s="1">
+      <c r="CT10" s="2">
+        <v>20081230</v>
+      </c>
+      <c r="CU10" s="2">
+        <v>20090130</v>
+      </c>
+      <c r="CV10" s="2">
         <v>20090227</v>
       </c>
-      <c r="J10" s="1">
+      <c r="CW10" s="2">
+        <v>20090331</v>
+      </c>
+      <c r="CX10" s="2">
+        <v>20090430</v>
+      </c>
+      <c r="CY10" s="2">
         <v>20090529</v>
       </c>
-      <c r="K10" s="1">
+      <c r="CZ10" s="2">
+        <v>20090630</v>
+      </c>
+      <c r="DA10" s="2">
+        <v>20090731</v>
+      </c>
+      <c r="DB10" s="2">
         <v>20090831</v>
       </c>
-      <c r="L10" s="1">
+      <c r="DC10" s="2">
+        <v>20090930</v>
+      </c>
+      <c r="DD10" s="2">
+        <v>20091030</v>
+      </c>
+      <c r="DE10" s="2">
         <v>20091130</v>
       </c>
-      <c r="M10" s="1">
+      <c r="DF10" s="2">
+        <v>20091230</v>
+      </c>
+      <c r="DG10" s="2">
+        <v>20100129</v>
+      </c>
+      <c r="DH10" s="2">
         <v>20100226</v>
       </c>
-      <c r="N10" s="1">
+      <c r="DI10" s="2">
+        <v>20100331</v>
+      </c>
+      <c r="DJ10" s="2">
+        <v>20100430</v>
+      </c>
+      <c r="DK10" s="2">
         <v>20100531</v>
       </c>
-      <c r="O10" s="1">
+      <c r="DL10" s="2">
+        <v>20100630</v>
+      </c>
+      <c r="DM10" s="2">
+        <v>20100730</v>
+      </c>
+      <c r="DN10" s="2">
         <v>20100831</v>
       </c>
-      <c r="P10" s="1">
+      <c r="DO10" s="2">
+        <v>20100930</v>
+      </c>
+      <c r="DP10" s="2">
+        <v>20101029</v>
+      </c>
+      <c r="DQ10" s="2">
         <v>20101130</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="DR10" s="2">
+        <v>20101230</v>
+      </c>
+      <c r="DS10" s="2">
+        <v>20110131</v>
+      </c>
+      <c r="DT10" s="2">
         <v>20110228</v>
       </c>
-      <c r="R10" s="1">
+      <c r="DU10" s="2">
+        <v>20110331</v>
+      </c>
+      <c r="DV10" s="2">
+        <v>20110429</v>
+      </c>
+      <c r="DW10" s="2">
         <v>20110531</v>
       </c>
-      <c r="S10" s="1">
+      <c r="DX10" s="2">
+        <v>20110630</v>
+      </c>
+      <c r="DY10" s="2">
+        <v>20110729</v>
+      </c>
+      <c r="DZ10" s="2">
         <v>20110831</v>
       </c>
-      <c r="T10" s="1">
+      <c r="EA10" s="2">
+        <v>20110930</v>
+      </c>
+      <c r="EB10" s="2">
+        <v>20111031</v>
+      </c>
+      <c r="EC10" s="2">
         <v>20111130</v>
       </c>
-      <c r="U10" s="1">
+      <c r="ED10" s="2">
+        <v>20111229</v>
+      </c>
+      <c r="EE10" s="2">
+        <v>20120131</v>
+      </c>
+      <c r="EF10" s="2">
         <v>20120229</v>
       </c>
-      <c r="V10" s="1">
+      <c r="EG10" s="2">
+        <v>20120330</v>
+      </c>
+      <c r="EH10" s="2">
+        <v>20120430</v>
+      </c>
+      <c r="EI10" s="2">
         <v>20120531</v>
       </c>
-      <c r="W10" s="1">
+      <c r="EJ10" s="2">
+        <v>20120629</v>
+      </c>
+      <c r="EK10" s="2">
+        <v>20120731</v>
+      </c>
+      <c r="EL10" s="2">
         <v>20120831</v>
       </c>
-      <c r="X10" s="1">
+      <c r="EM10" s="2">
+        <v>20120928</v>
+      </c>
+      <c r="EN10" s="2">
+        <v>20121031</v>
+      </c>
+      <c r="EO10" s="2">
         <v>20121130</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="EP10" s="2">
+        <v>20121228</v>
+      </c>
+      <c r="EQ10" s="2">
+        <v>20130131</v>
+      </c>
+      <c r="ER10" s="2">
         <v>20130228</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="ES10" s="2">
+        <v>20130329</v>
+      </c>
+      <c r="ET10" s="2">
+        <v>20130430</v>
+      </c>
+      <c r="EU10" s="2">
         <v>20130531</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="EV10" s="2">
+        <v>20130628</v>
+      </c>
+      <c r="EW10" s="2">
+        <v>20130731</v>
+      </c>
+      <c r="EX10" s="2">
         <v>20130830</v>
       </c>
-      <c r="AB10" s="1">
+      <c r="EY10" s="2">
+        <v>20130930</v>
+      </c>
+      <c r="EZ10" s="2">
+        <v>20131031</v>
+      </c>
+      <c r="FA10" s="2">
         <v>20131129</v>
       </c>
-      <c r="AC10" s="1">
+      <c r="FB10" s="2">
+        <v>20131230</v>
+      </c>
+      <c r="FC10" s="2">
+        <v>20140129</v>
+      </c>
+      <c r="FD10" s="2">
         <v>20140228</v>
       </c>
-      <c r="AD10" s="1">
+      <c r="FE10" s="2">
+        <v>20140331</v>
+      </c>
+      <c r="FF10" s="2">
+        <v>20140430</v>
+      </c>
+      <c r="FG10" s="2">
         <v>20140530</v>
       </c>
-      <c r="AE10" s="1">
+      <c r="FH10" s="2">
+        <v>20140630</v>
+      </c>
+      <c r="FI10" s="2">
+        <v>20140731</v>
+      </c>
+      <c r="FJ10" s="2">
         <v>20140829</v>
       </c>
-      <c r="AF10" s="1">
+      <c r="FK10" s="2">
+        <v>20140930</v>
+      </c>
+      <c r="FL10" s="2">
+        <v>20141031</v>
+      </c>
+      <c r="FM10" s="2">
         <v>20141128</v>
       </c>
-      <c r="AG10" s="1">
+      <c r="FN10" s="2">
+        <v>20141230</v>
+      </c>
+      <c r="FO10" s="2">
+        <v>20150130</v>
+      </c>
+      <c r="FP10" s="2">
         <v>20150227</v>
       </c>
-      <c r="AH10" s="1">
+      <c r="FQ10" s="2">
+        <v>20150331</v>
+      </c>
+      <c r="FR10" s="2">
+        <v>20150430</v>
+      </c>
+      <c r="FS10" s="2">
         <v>20150529</v>
       </c>
-      <c r="AI10" s="1">
+      <c r="FT10" s="2">
+        <v>20150630</v>
+      </c>
+      <c r="FU10" s="2">
+        <v>20150731</v>
+      </c>
+      <c r="FV10" s="2">
         <v>20150831</v>
       </c>
-      <c r="AJ10" s="1">
+      <c r="FW10" s="2">
+        <v>20150930</v>
+      </c>
+      <c r="FX10" s="2">
+        <v>20151030</v>
+      </c>
+      <c r="FY10" s="2">
         <v>20151130</v>
       </c>
-      <c r="AK10" s="1">
+      <c r="FZ10" s="2">
+        <v>20151230</v>
+      </c>
+      <c r="GA10" s="2">
+        <v>20160129</v>
+      </c>
+      <c r="GB10" s="2">
         <v>20160229</v>
       </c>
-      <c r="AL10" s="1">
+      <c r="GC10" s="2">
+        <v>20160331</v>
+      </c>
+      <c r="GD10" s="2">
+        <v>20160429</v>
+      </c>
+      <c r="GE10" s="2">
         <v>20160531</v>
       </c>
-      <c r="AM10" s="1">
+      <c r="GF10" s="2">
+        <v>20160630</v>
+      </c>
+      <c r="GG10" s="2">
+        <v>20160729</v>
+      </c>
+      <c r="GH10" s="2">
         <v>20160831</v>
       </c>
-      <c r="AN10" s="1">
+      <c r="GI10" s="2">
+        <v>20160930</v>
+      </c>
+      <c r="GJ10" s="2">
+        <v>20161031</v>
+      </c>
+      <c r="GK10" s="2">
         <v>20161130</v>
       </c>
-      <c r="AO10" s="1">
+      <c r="GL10" s="2">
+        <v>20161229</v>
+      </c>
+      <c r="GM10" s="2">
+        <v>20170131</v>
+      </c>
+      <c r="GN10" s="2">
         <v>20170228</v>
       </c>
-      <c r="AP10" s="1">
+      <c r="GO10" s="2">
+        <v>20170331</v>
+      </c>
+      <c r="GP10" s="2">
+        <v>20170428</v>
+      </c>
+      <c r="GQ10" s="2">
         <v>20170531</v>
       </c>
     </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:199" x14ac:dyDescent="0.4">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
         <v>425</v>
@@ -71953,11 +74104,482 @@
       <c r="AP11" s="2" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AQ11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AR11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AS11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AT11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AU11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AW11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AX11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AY11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="AZ11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BA11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BB11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BC11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BD11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BE11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BF11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BG11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BH11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BI11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BJ11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BK11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BL11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BM11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BN11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BO11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BP11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BQ11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BR11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BS11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BT11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BU11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BV11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BW11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BX11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BY11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BZ11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CA11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CB11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CC11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CD11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CE11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CF11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CG11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CH11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CI11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CJ11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CK11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CL11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CM11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CN11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CO11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CP11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CQ11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CR11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CS11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CT11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CU11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CV11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CW11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CX11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CY11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="CZ11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DA11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DB11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DC11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DD11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DE11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DF11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DG11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DH11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DI11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DJ11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DK11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DL11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DM11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DN11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DO11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DP11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DQ11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DR11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DS11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DT11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DU11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DV11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DW11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DX11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DY11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="DZ11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EA11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EB11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EC11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="ED11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EE11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EF11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EG11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EH11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EI11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EJ11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EK11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EL11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EM11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EN11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EO11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EP11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EQ11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="ER11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="ES11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="ET11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EU11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EV11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EW11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EX11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EY11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="EZ11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FA11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FB11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FC11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FD11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FE11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FF11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FG11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FH11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FI11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FJ11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FK11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FL11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FM11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FN11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FO11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FP11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FQ11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FR11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FS11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FT11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FU11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FV11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FW11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FX11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FY11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="FZ11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="GA11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="GB11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="GC11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="GD11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="GE11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="GF11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="GG11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="GH11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="GI11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="GJ11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="GK11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="GL11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="GM11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="GN11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="GO11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="GP11" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="GQ11" s="2" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="12" spans="1:199" x14ac:dyDescent="0.4">
       <c r="A12" s="14"/>
       <c r="B12" s="14" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -71999,413 +74621,2140 @@
       <c r="AN12" s="2"/>
       <c r="AO12" s="2"/>
       <c r="AP12" s="2"/>
-    </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="2"/>
+      <c r="BM12" s="2"/>
+      <c r="BN12" s="2"/>
+      <c r="BO12" s="2"/>
+      <c r="BP12" s="2"/>
+      <c r="BQ12" s="2"/>
+      <c r="BR12" s="2"/>
+      <c r="BS12" s="2"/>
+      <c r="BT12" s="2"/>
+      <c r="BU12" s="2"/>
+      <c r="BV12" s="2"/>
+      <c r="BW12" s="2"/>
+      <c r="BX12" s="2"/>
+      <c r="BY12" s="2"/>
+      <c r="BZ12" s="2"/>
+      <c r="CA12" s="2"/>
+      <c r="CB12" s="2"/>
+      <c r="CC12" s="2"/>
+      <c r="CD12" s="2"/>
+      <c r="CE12" s="2"/>
+      <c r="CF12" s="2"/>
+      <c r="CG12" s="2"/>
+      <c r="CH12" s="2"/>
+      <c r="CI12" s="2"/>
+      <c r="CJ12" s="2"/>
+      <c r="CK12" s="2"/>
+      <c r="CL12" s="2"/>
+      <c r="CM12" s="2"/>
+      <c r="CN12" s="2"/>
+      <c r="CO12" s="2"/>
+      <c r="CP12" s="2"/>
+      <c r="CQ12" s="2"/>
+      <c r="CR12" s="2"/>
+      <c r="CS12" s="2"/>
+      <c r="CT12" s="2"/>
+      <c r="CU12" s="2"/>
+      <c r="CV12" s="2"/>
+      <c r="CW12" s="2"/>
+      <c r="CX12" s="2"/>
+      <c r="CY12" s="2"/>
+      <c r="CZ12" s="2"/>
+      <c r="DA12" s="2"/>
+      <c r="DB12" s="2"/>
+      <c r="DC12" s="2"/>
+      <c r="DD12" s="2"/>
+      <c r="DE12" s="2"/>
+      <c r="DF12" s="2"/>
+      <c r="DG12" s="2"/>
+      <c r="DH12" s="2"/>
+      <c r="DI12" s="2"/>
+      <c r="DJ12" s="2"/>
+      <c r="DK12" s="2"/>
+      <c r="DL12" s="2"/>
+      <c r="DM12" s="2"/>
+      <c r="DN12" s="2"/>
+      <c r="DO12" s="2"/>
+      <c r="DP12" s="2"/>
+      <c r="DQ12" s="2"/>
+      <c r="DR12" s="2"/>
+      <c r="DS12" s="2"/>
+      <c r="DT12" s="2"/>
+      <c r="DU12" s="2"/>
+      <c r="DV12" s="2"/>
+      <c r="DW12" s="2"/>
+      <c r="DX12" s="2"/>
+      <c r="DY12" s="2"/>
+      <c r="DZ12" s="2"/>
+      <c r="EA12" s="2"/>
+      <c r="EB12" s="2"/>
+      <c r="EC12" s="2"/>
+      <c r="ED12" s="2"/>
+      <c r="EE12" s="2"/>
+      <c r="EF12" s="2"/>
+      <c r="EG12" s="2"/>
+      <c r="EH12" s="2"/>
+      <c r="EI12" s="2"/>
+      <c r="EJ12" s="2"/>
+      <c r="EK12" s="2"/>
+      <c r="EL12" s="2"/>
+      <c r="EM12" s="2"/>
+      <c r="EN12" s="2"/>
+      <c r="EO12" s="2"/>
+      <c r="EP12" s="2"/>
+      <c r="EQ12" s="2"/>
+      <c r="ER12" s="2"/>
+      <c r="ES12" s="2"/>
+      <c r="ET12" s="2"/>
+      <c r="EU12" s="2"/>
+      <c r="EV12" s="2"/>
+      <c r="EW12" s="2"/>
+      <c r="EX12" s="2"/>
+      <c r="EY12" s="2"/>
+      <c r="EZ12" s="2"/>
+      <c r="FA12" s="2"/>
+      <c r="FB12" s="2"/>
+      <c r="FC12" s="2"/>
+      <c r="FD12" s="2"/>
+      <c r="FE12" s="2"/>
+      <c r="FF12" s="2"/>
+      <c r="FG12" s="2"/>
+      <c r="FH12" s="2"/>
+      <c r="FI12" s="2"/>
+      <c r="FJ12" s="2"/>
+      <c r="FK12" s="2"/>
+      <c r="FL12" s="2"/>
+      <c r="FM12" s="2"/>
+      <c r="FN12" s="2"/>
+      <c r="FO12" s="2"/>
+      <c r="FP12" s="2"/>
+      <c r="FQ12" s="2"/>
+      <c r="FR12" s="2"/>
+      <c r="FS12" s="2"/>
+      <c r="FT12" s="2"/>
+      <c r="FU12" s="2"/>
+      <c r="FV12" s="2"/>
+      <c r="FW12" s="2"/>
+      <c r="FX12" s="2"/>
+      <c r="FY12" s="2"/>
+      <c r="FZ12" s="2"/>
+      <c r="GA12" s="2"/>
+      <c r="GB12" s="2"/>
+      <c r="GC12" s="2"/>
+      <c r="GD12" s="2"/>
+      <c r="GE12" s="2"/>
+      <c r="GF12" s="2"/>
+      <c r="GG12" s="2"/>
+      <c r="GH12" s="2"/>
+      <c r="GI12" s="2"/>
+      <c r="GJ12" s="2"/>
+      <c r="GK12" s="2"/>
+      <c r="GL12" s="2"/>
+      <c r="GM12" s="2"/>
+      <c r="GN12" s="2"/>
+      <c r="GO12" s="2"/>
+      <c r="GP12" s="2"/>
+      <c r="GQ12" s="2"/>
+    </row>
+    <row r="13" spans="1:199" x14ac:dyDescent="0.4">
       <c r="A13" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>429</v>
+      </c>
+      <c r="D13" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="B13" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>435</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>427</v>
-      </c>
       <c r="E13" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="K13" s="16" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="L13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Q13" s="16" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="R13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="S13" s="16" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="T13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="U13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="V13" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="W13" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="X13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Y13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="Z13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AA13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AB13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AC13" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AD13" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AE13" s="16" t="s">
-        <v>428</v>
+        <v>441</v>
       </c>
       <c r="AF13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AH13" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AI13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AJ13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AK13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AL13" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AM13" s="16" t="s">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="AN13" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AO13" s="16" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="AP13" s="16" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.4">
+        <v>426</v>
+      </c>
+      <c r="AQ13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="AR13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="AS13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="AT13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="AU13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="AV13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="AW13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="AX13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="AY13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="AZ13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="BA13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="BB13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="BC13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="BD13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="BE13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="BF13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="BG13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="BH13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="BI13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="BJ13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="BK13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="BL13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="BM13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="BN13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="BO13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="BP13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="BQ13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="BR13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="BS13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="BT13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="BU13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="BV13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="BW13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="BX13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="BY13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="BZ13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="CA13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="CB13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CC13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CD13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CE13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CF13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CG13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CH13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CI13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CJ13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CK13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CL13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CM13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CN13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CO13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="CP13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CQ13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CR13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CS13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CT13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CU13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CV13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CW13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CX13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="CY13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="CZ13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DA13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="DB13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DC13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DD13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DE13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DF13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DG13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DH13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DI13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="DJ13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DK13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="DL13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DM13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DN13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DO13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DP13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DQ13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DR13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DS13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DT13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DU13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DV13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DW13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DX13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DY13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="DZ13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="EA13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="EB13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="EC13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="ED13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="EE13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="EF13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="EG13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="EH13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="EI13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="EJ13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="EK13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="EL13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="EM13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="EN13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="EO13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="EP13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="EQ13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="ER13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="ES13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="ET13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="EU13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="EV13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="EW13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="EX13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="EY13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="EZ13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="FA13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="FB13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="FC13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="FD13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="FE13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="FF13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="FG13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="FH13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="FI13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="FJ13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="FK13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="FL13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="FM13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="FN13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="FO13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="FP13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="FQ13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="FR13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="FS13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="FT13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="FU13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="FV13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="FW13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="FX13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="FY13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="FZ13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="GA13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="GB13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="GC13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="GD13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="GE13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="GF13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="GG13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="GH13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="GI13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="GJ13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="GK13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="GL13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="GM13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="GN13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="GO13" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="GP13" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="GQ13" s="16" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="14" spans="1:199" x14ac:dyDescent="0.4">
       <c r="A14" s="13" t="s">
         <v>419</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="17">
+        <v>551.05999999999995</v>
+      </c>
+      <c r="E14" s="17">
+        <v>499</v>
+      </c>
+      <c r="F14" s="17">
+        <v>555.02</v>
+      </c>
+      <c r="G14" s="17">
+        <v>590.11</v>
+      </c>
+      <c r="H14" s="17">
+        <v>571.67999999999995</v>
+      </c>
+      <c r="I14" s="17">
+        <v>522.76</v>
+      </c>
+      <c r="J14" s="17">
+        <v>525.53</v>
+      </c>
+      <c r="K14" s="17">
+        <v>460.25</v>
+      </c>
+      <c r="L14" s="17">
+        <v>522.5</v>
+      </c>
+      <c r="M14" s="17">
+        <v>630.59</v>
+      </c>
+      <c r="N14" s="17">
+        <v>685.57</v>
+      </c>
+      <c r="O14" s="17">
+        <v>742.82</v>
+      </c>
+      <c r="P14" s="17">
+        <v>813.11</v>
+      </c>
+      <c r="Q14" s="17">
+        <v>881.68</v>
+      </c>
+      <c r="R14" s="17">
+        <v>830.86</v>
+      </c>
+      <c r="S14" s="17">
+        <v>789.22</v>
+      </c>
+      <c r="T14" s="17">
+        <v>735.97</v>
+      </c>
+      <c r="U14" s="17">
+        <v>712.67</v>
+      </c>
+      <c r="V14" s="17">
+        <v>732.5</v>
+      </c>
+      <c r="W14" s="17">
+        <v>638.95000000000005</v>
+      </c>
+      <c r="X14" s="17">
+        <v>654.11</v>
+      </c>
+      <c r="Y14" s="17">
+        <v>722</v>
+      </c>
+      <c r="Z14" s="17">
+        <v>622.17999999999995</v>
+      </c>
+      <c r="AA14" s="17">
+        <v>587.4</v>
+      </c>
+      <c r="AB14" s="17">
+        <v>568.77</v>
+      </c>
+      <c r="AC14" s="17">
+        <v>527.17999999999995</v>
+      </c>
+      <c r="AD14" s="17">
+        <v>589</v>
+      </c>
+      <c r="AE14" s="17">
+        <v>623.64</v>
+      </c>
+      <c r="AF14" s="17">
+        <v>664.73</v>
+      </c>
+      <c r="AG14" s="17">
+        <v>715.66</v>
+      </c>
+      <c r="AH14" s="17">
+        <v>760.16</v>
+      </c>
+      <c r="AI14" s="17">
+        <v>696.08</v>
+      </c>
+      <c r="AJ14" s="17">
+        <v>782.77</v>
+      </c>
+      <c r="AK14" s="17">
+        <v>795.49</v>
+      </c>
+      <c r="AL14" s="17">
+        <v>811.53</v>
+      </c>
+      <c r="AM14" s="17">
+        <v>858.67</v>
+      </c>
+      <c r="AN14" s="17">
+        <v>892.98</v>
+      </c>
+      <c r="AO14" s="17">
+        <v>897.02</v>
+      </c>
+      <c r="AP14" s="17">
+        <v>868.27</v>
+      </c>
+      <c r="AQ14" s="18">
+        <v>805.8</v>
+      </c>
+      <c r="AR14" s="18">
+        <v>787.52</v>
+      </c>
+      <c r="AS14" s="18">
+        <v>733.43</v>
+      </c>
+      <c r="AT14" s="18">
+        <v>794.09</v>
+      </c>
+      <c r="AU14" s="18">
+        <v>826.82</v>
+      </c>
+      <c r="AV14" s="18">
+        <v>828.14</v>
+      </c>
+      <c r="AW14" s="18">
+        <v>865.07</v>
+      </c>
+      <c r="AX14" s="18">
+        <v>877.52</v>
+      </c>
+      <c r="AY14" s="18">
+        <v>926.59</v>
+      </c>
+      <c r="AZ14" s="17">
+        <v>1009.72</v>
+      </c>
+      <c r="BA14" s="18">
+        <v>958.76</v>
+      </c>
+      <c r="BB14" s="18">
+        <v>899.91</v>
+      </c>
+      <c r="BC14" s="18">
+        <v>956.32</v>
+      </c>
+      <c r="BD14" s="18">
+        <v>994.4</v>
+      </c>
+      <c r="BE14" s="17">
+        <v>1103.93</v>
+      </c>
+      <c r="BF14" s="17">
+        <v>1076.3800000000001</v>
+      </c>
+      <c r="BG14" s="17">
+        <v>1216.6500000000001</v>
+      </c>
+      <c r="BH14" s="17">
+        <v>1150.6400000000001</v>
+      </c>
+      <c r="BI14" s="17">
+        <v>1289.24</v>
+      </c>
+      <c r="BJ14" s="17">
+        <v>1376.33</v>
+      </c>
+      <c r="BK14" s="17">
+        <v>1402.3</v>
+      </c>
+      <c r="BL14" s="17">
+        <v>1370.73</v>
+      </c>
+      <c r="BM14" s="17">
+        <v>1362.62</v>
+      </c>
+      <c r="BN14" s="17">
+        <v>1424.21</v>
+      </c>
+      <c r="BO14" s="17">
+        <v>1323.52</v>
+      </c>
+      <c r="BP14" s="17">
+        <v>1305.23</v>
+      </c>
+      <c r="BQ14" s="17">
+        <v>1310.4100000000001</v>
+      </c>
+      <c r="BR14" s="17">
+        <v>1362.43</v>
+      </c>
+      <c r="BS14" s="17">
+        <v>1383.88</v>
+      </c>
+      <c r="BT14" s="17">
+        <v>1375.79</v>
+      </c>
+      <c r="BU14" s="17">
+        <v>1440.78</v>
+      </c>
+      <c r="BV14" s="19">
+        <v>1441</v>
+      </c>
+      <c r="BW14" s="17">
+        <v>1369.43</v>
+      </c>
+      <c r="BX14" s="17">
+        <v>1428.67</v>
+      </c>
+      <c r="BY14" s="17">
+        <v>1463.59</v>
+      </c>
+      <c r="BZ14" s="17">
+        <v>1545.44</v>
+      </c>
+      <c r="CA14" s="17">
+        <v>1688.83</v>
+      </c>
+      <c r="CB14" s="17">
+        <v>1737.62</v>
+      </c>
+      <c r="CC14" s="17">
+        <v>1927.55</v>
+      </c>
+      <c r="CD14" s="17">
+        <v>1873.08</v>
+      </c>
+      <c r="CE14" s="17">
+        <v>1949.78</v>
+      </c>
+      <c r="CF14" s="17">
+        <v>2057.2199999999998</v>
+      </c>
+      <c r="CG14" s="17">
         <v>1898.66</v>
       </c>
-      <c r="E14" s="17">
+      <c r="CH14" s="17">
+        <v>1901.14</v>
+      </c>
+      <c r="CI14" s="17">
+        <v>1634.62</v>
+      </c>
+      <c r="CJ14" s="17">
         <v>1710.43</v>
       </c>
-      <c r="F14" s="17">
+      <c r="CK14" s="17">
+        <v>1708.25</v>
+      </c>
+      <c r="CL14" s="17">
+        <v>1839.31</v>
+      </c>
+      <c r="CM14" s="17">
         <v>1859.31</v>
       </c>
-      <c r="G14" s="17">
+      <c r="CN14" s="17">
+        <v>1680.7</v>
+      </c>
+      <c r="CO14" s="17">
+        <v>1601.63</v>
+      </c>
+      <c r="CP14" s="17">
         <v>1483.19</v>
       </c>
-      <c r="H14" s="17">
+      <c r="CQ14" s="17">
+        <v>1458.02</v>
+      </c>
+      <c r="CR14" s="17">
+        <v>1134.8599999999999</v>
+      </c>
+      <c r="CS14" s="17">
         <v>1088.45</v>
       </c>
-      <c r="I14" s="17">
+      <c r="CT14" s="17">
+        <v>1133.04</v>
+      </c>
+      <c r="CU14" s="17">
+        <v>1172.5999999999999</v>
+      </c>
+      <c r="CV14" s="17">
         <v>1075.26</v>
       </c>
-      <c r="J14" s="17">
+      <c r="CW14" s="17">
+        <v>1224.0999999999999</v>
+      </c>
+      <c r="CX14" s="17">
+        <v>1382.06</v>
+      </c>
+      <c r="CY14" s="17">
         <v>1407.57</v>
       </c>
-      <c r="K14" s="17">
+      <c r="CZ14" s="17">
+        <v>1405.54</v>
+      </c>
+      <c r="DA14" s="17">
+        <v>1584.78</v>
+      </c>
+      <c r="DB14" s="17">
         <v>1622.87</v>
       </c>
-      <c r="L14" s="17">
+      <c r="DC14" s="17">
+        <v>1708.9</v>
+      </c>
+      <c r="DD14" s="17">
+        <v>1613.4</v>
+      </c>
+      <c r="DE14" s="17">
         <v>1593.12</v>
       </c>
-      <c r="M14" s="17">
+      <c r="DF14" s="17">
+        <v>1722.45</v>
+      </c>
+      <c r="DG14" s="17">
+        <v>1635.88</v>
+      </c>
+      <c r="DH14" s="17">
         <v>1621.47</v>
       </c>
-      <c r="N14" s="17">
+      <c r="DI14" s="17">
+        <v>1722.87</v>
+      </c>
+      <c r="DJ14" s="17">
+        <v>1773.8</v>
+      </c>
+      <c r="DK14" s="17">
         <v>1671.81</v>
       </c>
-      <c r="O14" s="17">
+      <c r="DL14" s="17">
+        <v>1725.17</v>
+      </c>
+      <c r="DM14" s="17">
+        <v>1787.4</v>
+      </c>
+      <c r="DN14" s="17">
         <v>1765.88</v>
       </c>
-      <c r="P14" s="17">
+      <c r="DO14" s="17">
+        <v>1887.84</v>
+      </c>
+      <c r="DP14" s="17">
+        <v>1895.09</v>
+      </c>
+      <c r="DQ14" s="17">
         <v>1930.15</v>
       </c>
-      <c r="Q14" s="17">
+      <c r="DR14" s="17">
+        <v>2086.91</v>
+      </c>
+      <c r="DS14" s="17">
+        <v>2104.08</v>
+      </c>
+      <c r="DT14" s="17">
         <v>1976.25</v>
       </c>
-      <c r="R14" s="17">
+      <c r="DU14" s="17">
+        <v>2140.23</v>
+      </c>
+      <c r="DV14" s="17">
+        <v>2226.69</v>
+      </c>
+      <c r="DW14" s="17">
         <v>2165.89</v>
       </c>
-      <c r="S14" s="17">
+      <c r="DX14" s="17">
+        <v>2119.16</v>
+      </c>
+      <c r="DY14" s="17">
+        <v>2146.4699999999998</v>
+      </c>
+      <c r="DZ14" s="17">
         <v>1888.55</v>
       </c>
-      <c r="T14" s="17">
+      <c r="EA14" s="17">
+        <v>1793.46</v>
+      </c>
+      <c r="EB14" s="17">
+        <v>1937.33</v>
+      </c>
+      <c r="EC14" s="17">
         <v>1873.48</v>
       </c>
-      <c r="U14" s="17">
+      <c r="ED14" s="17">
+        <v>1854.71</v>
+      </c>
+      <c r="EE14" s="17">
+        <v>1989.14</v>
+      </c>
+      <c r="EF14" s="17">
         <v>2066.81</v>
       </c>
-      <c r="V14" s="17">
+      <c r="EG14" s="17">
+        <v>2058.7199999999998</v>
+      </c>
+      <c r="EH14" s="17">
+        <v>2042.64</v>
+      </c>
+      <c r="EI14" s="17">
         <v>1895.08</v>
       </c>
-      <c r="W14" s="17">
+      <c r="EJ14" s="17">
+        <v>1901.64</v>
+      </c>
+      <c r="EK14" s="19">
+        <v>1935</v>
+      </c>
+      <c r="EL14" s="17">
         <v>1947.38</v>
       </c>
-      <c r="X14" s="17">
+      <c r="EM14" s="17">
+        <v>2040.08</v>
+      </c>
+      <c r="EN14" s="17">
+        <v>1950.39</v>
+      </c>
+      <c r="EO14" s="17">
         <v>1976.79</v>
       </c>
-      <c r="Y14" s="17">
+      <c r="EP14" s="17">
+        <v>2044.49</v>
+      </c>
+      <c r="EQ14" s="17">
+        <v>2006.35</v>
+      </c>
+      <c r="ER14" s="17">
         <v>2078.0500000000002</v>
       </c>
-      <c r="Z14" s="17">
+      <c r="ES14" s="17">
+        <v>2052.7600000000002</v>
+      </c>
+      <c r="ET14" s="17">
+        <v>2003.67</v>
+      </c>
+      <c r="EU14" s="17">
         <v>2048.9299999999998</v>
       </c>
-      <c r="AA14" s="17">
+      <c r="EV14" s="17">
+        <v>1902.79</v>
+      </c>
+      <c r="EW14" s="17">
+        <v>1950.04</v>
+      </c>
+      <c r="EX14" s="17">
         <v>1970.44</v>
       </c>
-      <c r="AB14" s="17">
+      <c r="EY14" s="17">
+        <v>2040.84</v>
+      </c>
+      <c r="EZ14" s="17">
+        <v>2084.9</v>
+      </c>
+      <c r="FA14" s="17">
         <v>2103.31</v>
       </c>
-      <c r="AC14" s="17">
+      <c r="FB14" s="17">
+        <v>2063.21</v>
+      </c>
+      <c r="FC14" s="17">
+        <v>1984.17</v>
+      </c>
+      <c r="FD14" s="17">
         <v>2028.54</v>
       </c>
-      <c r="AD14" s="17">
+      <c r="FE14" s="17">
+        <v>2030.31</v>
+      </c>
+      <c r="FF14" s="17">
+        <v>2012.76</v>
+      </c>
+      <c r="FG14" s="17">
         <v>2048.62</v>
       </c>
-      <c r="AE14" s="17">
+      <c r="FH14" s="17">
+        <v>2053.96</v>
+      </c>
+      <c r="FI14" s="17">
+        <v>2126.56</v>
+      </c>
+      <c r="FJ14" s="17">
         <v>2104.44</v>
       </c>
-      <c r="AF14" s="17">
+      <c r="FK14" s="17">
+        <v>2042.2</v>
+      </c>
+      <c r="FL14" s="17">
+        <v>1989.66</v>
+      </c>
+      <c r="FM14" s="17">
         <v>2007.75</v>
       </c>
-      <c r="AG14" s="17">
+      <c r="FN14" s="17">
+        <v>1938.3</v>
+      </c>
+      <c r="FO14" s="17">
+        <v>1977.15</v>
+      </c>
+      <c r="FP14" s="17">
         <v>2004.27</v>
       </c>
-      <c r="AH14" s="17">
+      <c r="FQ14" s="17">
+        <v>2058.98</v>
+      </c>
+      <c r="FR14" s="17">
+        <v>2135.9</v>
+      </c>
+      <c r="FS14" s="17">
         <v>2104.2399999999998</v>
       </c>
-      <c r="AI14" s="17">
+      <c r="FT14" s="17">
+        <v>2052.1</v>
+      </c>
+      <c r="FU14" s="17">
+        <v>1995.9</v>
+      </c>
+      <c r="FV14" s="17">
         <v>1902.89</v>
       </c>
-      <c r="AJ14" s="17">
+      <c r="FW14" s="17">
+        <v>1933.75</v>
+      </c>
+      <c r="FX14" s="17">
+        <v>2019.73</v>
+      </c>
+      <c r="FY14" s="17">
         <v>1979.92</v>
       </c>
-      <c r="AK14" s="17">
+      <c r="FZ14" s="17">
+        <v>1950.49</v>
+      </c>
+      <c r="GA14" s="17">
+        <v>1888.68</v>
+      </c>
+      <c r="GB14" s="17">
         <v>1901.88</v>
       </c>
-      <c r="AL14" s="17">
+      <c r="GC14" s="17">
+        <v>1989.21</v>
+      </c>
+      <c r="GD14" s="17">
+        <v>1989.23</v>
+      </c>
+      <c r="GE14" s="17">
         <v>1980.88</v>
       </c>
-      <c r="AM14" s="17">
+      <c r="GF14" s="17">
+        <v>1977.6</v>
+      </c>
+      <c r="GG14" s="17">
+        <v>2033.61</v>
+      </c>
+      <c r="GH14" s="17">
         <v>2064.65</v>
       </c>
-      <c r="AN14" s="17">
+      <c r="GI14" s="17">
+        <v>2071.7600000000002</v>
+      </c>
+      <c r="GJ14" s="17">
+        <v>2046.29</v>
+      </c>
+      <c r="GK14" s="17">
         <v>2026.06</v>
       </c>
-      <c r="AO14" s="17">
+      <c r="GL14" s="17">
+        <v>2074.5300000000002</v>
+      </c>
+      <c r="GM14" s="17">
+        <v>2130.23</v>
+      </c>
+      <c r="GN14" s="17">
         <v>2151.0700000000002</v>
       </c>
-      <c r="AP14" s="17">
+      <c r="GO14" s="17">
+        <v>2230.2199999999998</v>
+      </c>
+      <c r="GP14" s="17">
+        <v>2280.84</v>
+      </c>
+      <c r="GQ14" s="17">
         <v>2418.29</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:199" x14ac:dyDescent="0.4">
       <c r="E15">
         <f>E14/D14</f>
-        <v>0.9008616603288635</v>
+        <v>0.90552752876274822</v>
       </c>
       <c r="F15">
         <f t="shared" ref="F15:AP15" si="0">F14/E14</f>
-        <v>1.0870424396204463</v>
+        <v>1.1122645290581161</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0.79770990313610968</v>
+        <v>1.0632229469208316</v>
       </c>
       <c r="H15">
         <f t="shared" si="0"/>
-        <v>0.73385742892009787</v>
+        <v>0.96876853467997481</v>
       </c>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>0.98788185033763609</v>
+        <v>0.91442765183319341</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>1.3090508342168405</v>
+        <v>1.0052987986839084</v>
       </c>
       <c r="K15">
         <f t="shared" si="0"/>
-        <v>1.1529586450407439</v>
+        <v>0.87578254333720251</v>
       </c>
       <c r="L15">
         <f t="shared" si="0"/>
-        <v>0.98166827903652176</v>
+        <v>1.1352525801195004</v>
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>1.017795269659536</v>
+        <v>1.2068708133971293</v>
       </c>
       <c r="N15">
         <f t="shared" si="0"/>
-        <v>1.031045902791911</v>
+        <v>1.0871881888390238</v>
       </c>
       <c r="O15">
         <f t="shared" si="0"/>
-        <v>1.0562683558538353</v>
+        <v>1.0835071546304536</v>
       </c>
       <c r="P15">
         <f t="shared" si="0"/>
-        <v>1.0930244410718735</v>
+        <v>1.0946258851404107</v>
       </c>
       <c r="Q15">
         <f t="shared" si="0"/>
-        <v>1.0238841540812891</v>
+        <v>1.0843305333841669</v>
       </c>
       <c r="R15">
         <f t="shared" si="0"/>
-        <v>1.0959595192915876</v>
+        <v>0.94236003992378192</v>
       </c>
       <c r="S15">
         <f t="shared" si="0"/>
-        <v>0.8719510224434297</v>
+        <v>0.94988325349637726</v>
       </c>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>0.9920203330597549</v>
+        <v>0.93252831909987077</v>
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>1.1031929884493028</v>
+        <v>0.96834110086008929</v>
       </c>
       <c r="V15">
         <f t="shared" si="0"/>
-        <v>0.91691060136151847</v>
+        <v>1.0278249400143125</v>
       </c>
       <c r="W15">
         <f t="shared" si="0"/>
-        <v>1.027597779513266</v>
+        <v>0.87228668941979526</v>
       </c>
       <c r="X15">
         <f t="shared" si="0"/>
-        <v>1.0151023426347194</v>
+        <v>1.0237264261679317</v>
       </c>
       <c r="Y15">
         <f t="shared" si="0"/>
-        <v>1.0512244598566365</v>
+        <v>1.103789882435676</v>
       </c>
       <c r="Z15">
         <f t="shared" si="0"/>
-        <v>0.9859868626837659</v>
+        <v>0.86174515235457061</v>
       </c>
       <c r="AA15">
         <f t="shared" si="0"/>
-        <v>0.96169220031919112</v>
+        <v>0.94409977819923496</v>
       </c>
       <c r="AB15">
         <f t="shared" si="0"/>
-        <v>1.0674316396337873</v>
+        <v>0.96828396322778343</v>
       </c>
       <c r="AC15">
         <f t="shared" si="0"/>
-        <v>0.96445126966543215</v>
+        <v>0.92687729662253626</v>
       </c>
       <c r="AD15">
         <f t="shared" si="0"/>
-        <v>1.0098987449101324</v>
+        <v>1.1172654501308852</v>
       </c>
       <c r="AE15">
         <f t="shared" si="0"/>
-        <v>1.0272476105866388</v>
+        <v>1.058811544991511</v>
       </c>
       <c r="AF15">
         <f t="shared" si="0"/>
-        <v>0.95405428522552316</v>
+        <v>1.0658873709191201</v>
       </c>
       <c r="AG15">
         <f t="shared" si="0"/>
-        <v>0.99826671647366449</v>
+        <v>1.0766175740526227</v>
       </c>
       <c r="AH15">
         <f t="shared" si="0"/>
-        <v>1.0498785093824683</v>
+        <v>1.0621803649777828</v>
       </c>
       <c r="AI15">
         <f t="shared" si="0"/>
-        <v>0.90431224575143532</v>
+        <v>0.91570195748263528</v>
       </c>
       <c r="AJ15">
         <f t="shared" si="0"/>
-        <v>1.0404805322430619</v>
+        <v>1.1245402827261233</v>
       </c>
       <c r="AK15">
         <f t="shared" si="0"/>
-        <v>0.96058426603095082</v>
+        <v>1.0162499840310693</v>
       </c>
       <c r="AL15">
         <f t="shared" si="0"/>
-        <v>1.0415378467621512</v>
+        <v>1.0201636727048737</v>
       </c>
       <c r="AM15">
         <f t="shared" si="0"/>
-        <v>1.0422892855700496</v>
+        <v>1.0580878094463544</v>
       </c>
       <c r="AN15">
         <f t="shared" si="0"/>
-        <v>0.98130918073281181</v>
+        <v>1.0399571430235133</v>
       </c>
       <c r="AO15">
         <f t="shared" si="0"/>
-        <v>1.0617010355073395</v>
+        <v>1.0045241774731797</v>
       </c>
       <c r="AP15">
         <f t="shared" si="0"/>
-        <v>1.1242265477181124</v>
+        <v>0.96794943256560617</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" ref="AQ15" si="1">AQ14/AP14</f>
+        <v>0.92805233395142062</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" ref="AR15" si="2">AR14/AQ14</f>
+        <v>0.97731447009183425</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" ref="AS15" si="3">AS14/AR14</f>
+        <v>0.93131603006907759</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" ref="AT15" si="4">AT14/AS14</f>
+        <v>1.0827072794949757</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" ref="AU15" si="5">AU14/AT14</f>
+        <v>1.0412169905174478</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" ref="AV15" si="6">AV14/AU14</f>
+        <v>1.0015964780726154</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" ref="AW15" si="7">AW14/AV14</f>
+        <v>1.0445939092423988</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" ref="AX15" si="8">AX14/AW14</f>
+        <v>1.0143918989214744</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" ref="AY15" si="9">AY14/AX14</f>
+        <v>1.0559189534141673</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" ref="AZ15" si="10">AZ14/AY14</f>
+        <v>1.0897160556448915</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" ref="BA15" si="11">BA14/AZ14</f>
+        <v>0.94953056292833649</v>
+      </c>
+      <c r="BB15">
+        <f t="shared" ref="BB15" si="12">BB14/BA14</f>
+        <v>0.93861863240018351</v>
+      </c>
+      <c r="BC15">
+        <f t="shared" ref="BC15" si="13">BC14/BB14</f>
+        <v>1.0626840461823961</v>
+      </c>
+      <c r="BD15">
+        <f t="shared" ref="BD15" si="14">BD14/BC14</f>
+        <v>1.0398193073448216</v>
+      </c>
+      <c r="BE15">
+        <f t="shared" ref="BE15" si="15">BE14/BD14</f>
+        <v>1.1101468222043445</v>
+      </c>
+      <c r="BF15">
+        <f t="shared" ref="BF15" si="16">BF14/BE14</f>
+        <v>0.97504370748145264</v>
+      </c>
+      <c r="BG15">
+        <f t="shared" ref="BG15" si="17">BG14/BF14</f>
+        <v>1.1303164310002043</v>
+      </c>
+      <c r="BH15">
+        <f t="shared" ref="BH15" si="18">BH14/BG14</f>
+        <v>0.94574446225290754</v>
+      </c>
+      <c r="BI15">
+        <f t="shared" ref="BI15" si="19">BI14/BH14</f>
+        <v>1.1204547034693735</v>
+      </c>
+      <c r="BJ15">
+        <f t="shared" ref="BJ15" si="20">BJ14/BI14</f>
+        <v>1.0675514256461169</v>
+      </c>
+      <c r="BK15">
+        <f t="shared" ref="BK15" si="21">BK14/BJ14</f>
+        <v>1.0188690212376392</v>
+      </c>
+      <c r="BL15">
+        <f t="shared" ref="BL15" si="22">BL14/BK14</f>
+        <v>0.97748698566640524</v>
+      </c>
+      <c r="BM15">
+        <f t="shared" ref="BM15" si="23">BM14/BL14</f>
+        <v>0.9940834445879202</v>
+      </c>
+      <c r="BN15">
+        <f t="shared" ref="BN15" si="24">BN14/BM14</f>
+        <v>1.045199688834745</v>
+      </c>
+      <c r="BO15">
+        <f t="shared" ref="BO15" si="25">BO14/BN14</f>
+        <v>0.92930115643058253</v>
+      </c>
+      <c r="BP15">
+        <f t="shared" ref="BP15" si="26">BP14/BO14</f>
+        <v>0.98618079061895558</v>
+      </c>
+      <c r="BQ15">
+        <f t="shared" ref="BQ15" si="27">BQ14/BP14</f>
+        <v>1.0039686492035886</v>
+      </c>
+      <c r="BR15">
+        <f t="shared" ref="BR15" si="28">BR14/BQ14</f>
+        <v>1.039697499255958</v>
+      </c>
+      <c r="BS15">
+        <f t="shared" ref="BS15" si="29">BS14/BR14</f>
+        <v>1.0157439281284177</v>
+      </c>
+      <c r="BT15">
+        <f t="shared" ref="BT15" si="30">BT14/BS14</f>
+        <v>0.99415411740902382</v>
+      </c>
+      <c r="BU15">
+        <f t="shared" ref="BU15" si="31">BU14/BT14</f>
+        <v>1.0472383139868731</v>
+      </c>
+      <c r="BV15">
+        <f t="shared" ref="BV15" si="32">BV14/BU14</f>
+        <v>1.0001526950679493</v>
+      </c>
+      <c r="BW15">
+        <f t="shared" ref="BW15" si="33">BW14/BV14</f>
+        <v>0.95033310201249133</v>
+      </c>
+      <c r="BX15">
+        <f t="shared" ref="BX15" si="34">BX14/BW14</f>
+        <v>1.0432588741301125</v>
+      </c>
+      <c r="BY15">
+        <f t="shared" ref="BY15" si="35">BY14/BX14</f>
+        <v>1.0244423134803697</v>
+      </c>
+      <c r="BZ15">
+        <f t="shared" ref="BZ15" si="36">BZ14/BY14</f>
+        <v>1.0559241317582111</v>
+      </c>
+      <c r="CA15">
+        <f t="shared" ref="CA15" si="37">CA14/BZ14</f>
+        <v>1.0927826379542396</v>
+      </c>
+      <c r="CB15">
+        <f t="shared" ref="CB15" si="38">CB14/CA14</f>
+        <v>1.0288898231319907</v>
+      </c>
+      <c r="CC15">
+        <f t="shared" ref="CC15" si="39">CC14/CB14</f>
+        <v>1.1093046811155489</v>
+      </c>
+      <c r="CD15">
+        <f t="shared" ref="CD15" si="40">CD14/CC14</f>
+        <v>0.97174132966719406</v>
+      </c>
+      <c r="CE15">
+        <f t="shared" ref="CE15" si="41">CE14/CD14</f>
+        <v>1.0409485980310504</v>
+      </c>
+      <c r="CF15">
+        <f t="shared" ref="CF15" si="42">CF14/CE14</f>
+        <v>1.0551036527197939</v>
+      </c>
+      <c r="CG15">
+        <f t="shared" ref="CG15" si="43">CG14/CF14</f>
+        <v>0.92292511253050247</v>
+      </c>
+      <c r="CH15">
+        <f t="shared" ref="CH15" si="44">CH14/CG14</f>
+        <v>1.0013061843616025</v>
+      </c>
+      <c r="CI15">
+        <f t="shared" ref="CI15" si="45">CI14/CH14</f>
+        <v>0.85981042953175457</v>
+      </c>
+      <c r="CJ15">
+        <f t="shared" ref="CJ15" si="46">CJ14/CI14</f>
+        <v>1.0463777514039962</v>
+      </c>
+      <c r="CK15">
+        <f t="shared" ref="CK15" si="47">CK14/CJ14</f>
+        <v>0.99872546669550932</v>
+      </c>
+      <c r="CL15">
+        <f t="shared" ref="CL15" si="48">CL14/CK14</f>
+        <v>1.0767217913068929</v>
+      </c>
+      <c r="CM15">
+        <f t="shared" ref="CM15" si="49">CM14/CL14</f>
+        <v>1.0108736428334539</v>
+      </c>
+      <c r="CN15">
+        <f t="shared" ref="CN15" si="50">CN14/CM14</f>
+        <v>0.90393748218425118</v>
+      </c>
+      <c r="CO15">
+        <f t="shared" ref="CO15" si="51">CO14/CN14</f>
+        <v>0.95295412625691678</v>
+      </c>
+      <c r="CP15">
+        <f t="shared" ref="CP15" si="52">CP14/CO14</f>
+        <v>0.9260503362199759</v>
+      </c>
+      <c r="CQ15">
+        <f t="shared" ref="CQ15" si="53">CQ14/CP14</f>
+        <v>0.98302982085909418</v>
+      </c>
+      <c r="CR15">
+        <f t="shared" ref="CR15" si="54">CR14/CQ14</f>
+        <v>0.77835694983607906</v>
+      </c>
+      <c r="CS15">
+        <f t="shared" ref="CS15" si="55">CS14/CR14</f>
+        <v>0.95910508785224624</v>
+      </c>
+      <c r="CT15">
+        <f t="shared" ref="CT15" si="56">CT14/CS14</f>
+        <v>1.0409665120124947</v>
+      </c>
+      <c r="CU15">
+        <f t="shared" ref="CU15" si="57">CU14/CT14</f>
+        <v>1.034914919155546</v>
+      </c>
+      <c r="CV15">
+        <f t="shared" ref="CV15" si="58">CV14/CU14</f>
+        <v>0.91698789015862192</v>
+      </c>
+      <c r="CW15">
+        <f t="shared" ref="CW15" si="59">CW14/CV14</f>
+        <v>1.1384223350631475</v>
+      </c>
+      <c r="CX15">
+        <f t="shared" ref="CX15" si="60">CX14/CW14</f>
+        <v>1.1290417449554775</v>
+      </c>
+      <c r="CY15">
+        <f t="shared" ref="CY15" si="61">CY14/CX14</f>
+        <v>1.0184579540685643</v>
+      </c>
+      <c r="CZ15">
+        <f t="shared" ref="CZ15" si="62">CZ14/CY14</f>
+        <v>0.99855779819120893</v>
+      </c>
+      <c r="DA15">
+        <f t="shared" ref="DA15" si="63">DA14/CZ14</f>
+        <v>1.1275239409764219</v>
+      </c>
+      <c r="DB15">
+        <f t="shared" ref="DB15" si="64">DB14/DA14</f>
+        <v>1.0240348818132485</v>
+      </c>
+      <c r="DC15">
+        <f t="shared" ref="DC15" si="65">DC14/DB14</f>
+        <v>1.0530110236802703</v>
+      </c>
+      <c r="DD15">
+        <f t="shared" ref="DD15" si="66">DD14/DC14</f>
+        <v>0.94411609807478492</v>
+      </c>
+      <c r="DE15">
+        <f t="shared" ref="DE15" si="67">DE14/DD14</f>
+        <v>0.98743027147638518</v>
+      </c>
+      <c r="DF15">
+        <f t="shared" ref="DF15" si="68">DF14/DE14</f>
+        <v>1.0811803253992167</v>
+      </c>
+      <c r="DG15">
+        <f t="shared" ref="DG15" si="69">DG14/DF14</f>
+        <v>0.94974019565154288</v>
+      </c>
+      <c r="DH15">
+        <f t="shared" ref="DH15" si="70">DH14/DG14</f>
+        <v>0.99119128542435875</v>
+      </c>
+      <c r="DI15">
+        <f t="shared" ref="DI15" si="71">DI14/DH14</f>
+        <v>1.0625358471017039</v>
+      </c>
+      <c r="DJ15">
+        <f t="shared" ref="DJ15" si="72">DJ14/DI14</f>
+        <v>1.0295611392618131</v>
+      </c>
+      <c r="DK15">
+        <f t="shared" ref="DK15" si="73">DK14/DJ14</f>
+        <v>0.94250197316495654</v>
+      </c>
+      <c r="DL15">
+        <f t="shared" ref="DL15" si="74">DL14/DK14</f>
+        <v>1.0319175025870166</v>
+      </c>
+      <c r="DM15">
+        <f t="shared" ref="DM15" si="75">DM14/DL14</f>
+        <v>1.0360718074160808</v>
+      </c>
+      <c r="DN15">
+        <f t="shared" ref="DN15" si="76">DN14/DM14</f>
+        <v>0.98796016560367017</v>
+      </c>
+      <c r="DO15">
+        <f t="shared" ref="DO15" si="77">DO14/DN14</f>
+        <v>1.0690647156092146</v>
+      </c>
+      <c r="DP15">
+        <f t="shared" ref="DP15" si="78">DP14/DO14</f>
+        <v>1.0038403678277821</v>
+      </c>
+      <c r="DQ15">
+        <f t="shared" ref="DQ15" si="79">DQ14/DP14</f>
+        <v>1.0185004406123193</v>
+      </c>
+      <c r="DR15">
+        <f t="shared" ref="DR15" si="80">DR14/DQ14</f>
+        <v>1.081216485765355</v>
+      </c>
+      <c r="DS15">
+        <f t="shared" ref="DS15" si="81">DS14/DR14</f>
+        <v>1.0082274750707985</v>
+      </c>
+      <c r="DT15">
+        <f t="shared" ref="DT15" si="82">DT14/DS14</f>
+        <v>0.93924660659290526</v>
+      </c>
+      <c r="DU15">
+        <f t="shared" ref="DU15" si="83">DU14/DT14</f>
+        <v>1.0829753320683113</v>
+      </c>
+      <c r="DV15">
+        <f t="shared" ref="DV15" si="84">DV14/DU14</f>
+        <v>1.040397527368554</v>
+      </c>
+      <c r="DW15">
+        <f t="shared" ref="DW15" si="85">DW14/DV14</f>
+        <v>0.97269489690976285</v>
+      </c>
+      <c r="DX15">
+        <f t="shared" ref="DX15" si="86">DX14/DW14</f>
+        <v>0.97842457373181457</v>
+      </c>
+      <c r="DY15">
+        <f t="shared" ref="DY15" si="87">DY14/DX14</f>
+        <v>1.012887181713509</v>
+      </c>
+      <c r="DZ15">
+        <f t="shared" ref="DZ15" si="88">DZ14/DY14</f>
+        <v>0.87983992322277982</v>
+      </c>
+      <c r="EA15">
+        <f t="shared" ref="EA15" si="89">EA14/DZ14</f>
+        <v>0.94964920176855261</v>
+      </c>
+      <c r="EB15">
+        <f t="shared" ref="EB15" si="90">EB14/EA14</f>
+        <v>1.080219241020151</v>
+      </c>
+      <c r="EC15">
+        <f t="shared" ref="EC15" si="91">EC14/EB14</f>
+        <v>0.96704226951526073</v>
+      </c>
+      <c r="ED15">
+        <f t="shared" ref="ED15" si="92">ED14/EC14</f>
+        <v>0.98998121143540363</v>
+      </c>
+      <c r="EE15">
+        <f t="shared" ref="EE15" si="93">EE14/ED14</f>
+        <v>1.0724803338527318</v>
+      </c>
+      <c r="EF15">
+        <f t="shared" ref="EF15" si="94">EF14/EE14</f>
+        <v>1.0390470253476376</v>
+      </c>
+      <c r="EG15">
+        <f t="shared" ref="EG15" si="95">EG14/EF14</f>
+        <v>0.99608575534277455</v>
+      </c>
+      <c r="EH15">
+        <f t="shared" ref="EH15" si="96">EH14/EG14</f>
+        <v>0.99218932152016803</v>
+      </c>
+      <c r="EI15">
+        <f t="shared" ref="EI15" si="97">EI14/EH14</f>
+        <v>0.92776015352680841</v>
+      </c>
+      <c r="EJ15">
+        <f t="shared" ref="EJ15" si="98">EJ14/EI14</f>
+        <v>1.0034615952888533</v>
+      </c>
+      <c r="EK15">
+        <f t="shared" ref="EK15" si="99">EK14/EJ14</f>
+        <v>1.0175427525714646</v>
+      </c>
+      <c r="EL15">
+        <f t="shared" ref="EL15" si="100">EL14/EK14</f>
+        <v>1.0063979328165376</v>
+      </c>
+      <c r="EM15">
+        <f t="shared" ref="EM15" si="101">EM14/EL14</f>
+        <v>1.0476024196612883</v>
+      </c>
+      <c r="EN15">
+        <f t="shared" ref="EN15" si="102">EN14/EM14</f>
+        <v>0.95603603780243918</v>
+      </c>
+      <c r="EO15">
+        <f t="shared" ref="EO15" si="103">EO14/EN14</f>
+        <v>1.013535754387584</v>
+      </c>
+      <c r="EP15">
+        <f t="shared" ref="EP15" si="104">EP14/EO14</f>
+        <v>1.0342474415592957</v>
+      </c>
+      <c r="EQ15">
+        <f t="shared" ref="EQ15" si="105">EQ14/EP14</f>
+        <v>0.98134498089988209</v>
+      </c>
+      <c r="ER15">
+        <f t="shared" ref="ER15" si="106">ER14/EQ14</f>
+        <v>1.0357365364966233</v>
+      </c>
+      <c r="ES15">
+        <f t="shared" ref="ES15" si="107">ES14/ER14</f>
+        <v>0.98782993671952068</v>
+      </c>
+      <c r="ET15">
+        <f t="shared" ref="ET15" si="108">ET14/ES14</f>
+        <v>0.97608585514137058</v>
+      </c>
+      <c r="EU15">
+        <f t="shared" ref="EU15" si="109">EU14/ET14</f>
+        <v>1.0225885500107301</v>
+      </c>
+      <c r="EV15">
+        <f t="shared" ref="EV15" si="110">EV14/EU14</f>
+        <v>0.92867496693396068</v>
+      </c>
+      <c r="EW15">
+        <f t="shared" ref="EW15" si="111">EW14/EV14</f>
+        <v>1.0248319572837781</v>
+      </c>
+      <c r="EX15">
+        <f t="shared" ref="EX15" si="112">EX14/EW14</f>
+        <v>1.0104613238702795</v>
+      </c>
+      <c r="EY15">
+        <f t="shared" ref="EY15" si="113">EY14/EX14</f>
+        <v>1.0357280607377033</v>
+      </c>
+      <c r="EZ15">
+        <f t="shared" ref="EZ15" si="114">EZ14/EY14</f>
+        <v>1.0215891495658651</v>
+      </c>
+      <c r="FA15">
+        <f t="shared" ref="FA15" si="115">FA14/EZ14</f>
+        <v>1.0088301597198905</v>
+      </c>
+      <c r="FB15">
+        <f t="shared" ref="FB15" si="116">FB14/FA14</f>
+        <v>0.98093481227208545</v>
+      </c>
+      <c r="FC15">
+        <f t="shared" ref="FC15" si="117">FC14/FB14</f>
+        <v>0.96169076342204629</v>
+      </c>
+      <c r="FD15">
+        <f t="shared" ref="FD15" si="118">FD14/FC14</f>
+        <v>1.0223619951919443</v>
+      </c>
+      <c r="FE15">
+        <f t="shared" ref="FE15" si="119">FE14/FD14</f>
+        <v>1.0008725487296282</v>
+      </c>
+      <c r="FF15">
+        <f t="shared" ref="FF15" si="120">FF14/FE14</f>
+        <v>0.99135599982268718</v>
+      </c>
+      <c r="FG15">
+        <f t="shared" ref="FG15" si="121">FG14/FF14</f>
+        <v>1.0178163318030962</v>
+      </c>
+      <c r="FH15">
+        <f t="shared" ref="FH15" si="122">FH14/FG14</f>
+        <v>1.0026066327576613</v>
+      </c>
+      <c r="FI15">
+        <f t="shared" ref="FI15" si="123">FI14/FH14</f>
+        <v>1.0353463553331126</v>
+      </c>
+      <c r="FJ15">
+        <f t="shared" ref="FJ15" si="124">FJ14/FI14</f>
+        <v>0.98959822436235056</v>
+      </c>
+      <c r="FK15">
+        <f t="shared" ref="FK15" si="125">FK14/FJ14</f>
+        <v>0.97042443595445815</v>
+      </c>
+      <c r="FL15">
+        <f t="shared" ref="FL15" si="126">FL14/FK14</f>
+        <v>0.97427284301243755</v>
+      </c>
+      <c r="FM15">
+        <f t="shared" ref="FM15" si="127">FM14/FL14</f>
+        <v>1.0090920056693102</v>
+      </c>
+      <c r="FN15">
+        <f t="shared" ref="FN15" si="128">FN14/FM14</f>
+        <v>0.96540903997011573</v>
+      </c>
+      <c r="FO15">
+        <f t="shared" ref="FO15" si="129">FO14/FN14</f>
+        <v>1.0200433369447455</v>
+      </c>
+      <c r="FP15">
+        <f t="shared" ref="FP15" si="130">FP14/FO14</f>
+        <v>1.0137167134511798</v>
+      </c>
+      <c r="FQ15">
+        <f t="shared" ref="FQ15" si="131">FQ14/FP14</f>
+        <v>1.0272967214995983</v>
+      </c>
+      <c r="FR15">
+        <f t="shared" ref="FR15" si="132">FR14/FQ14</f>
+        <v>1.0373583036260674</v>
+      </c>
+      <c r="FS15">
+        <f t="shared" ref="FS15" si="133">FS14/FR14</f>
+        <v>0.98517720867081782</v>
+      </c>
+      <c r="FT15">
+        <f t="shared" ref="FT15" si="134">FT14/FS14</f>
+        <v>0.97522145762840751</v>
+      </c>
+      <c r="FU15">
+        <f t="shared" ref="FU15" si="135">FU14/FT14</f>
+        <v>0.97261342039861609</v>
+      </c>
+      <c r="FV15">
+        <f t="shared" ref="FV15" si="136">FV14/FU14</f>
+        <v>0.95339946891126814</v>
+      </c>
+      <c r="FW15">
+        <f t="shared" ref="FW15" si="137">FW14/FV14</f>
+        <v>1.0162174376868867</v>
+      </c>
+      <c r="FX15">
+        <f t="shared" ref="FX15" si="138">FX14/FW14</f>
+        <v>1.0444628312863606</v>
+      </c>
+      <c r="FY15">
+        <f t="shared" ref="FY15" si="139">FY14/FX14</f>
+        <v>0.98028944462873757</v>
+      </c>
+      <c r="FZ15">
+        <f t="shared" ref="FZ15" si="140">FZ14/FY14</f>
+        <v>0.98513576306113371</v>
+      </c>
+      <c r="GA15">
+        <f t="shared" ref="GA15" si="141">GA14/FZ14</f>
+        <v>0.96831052709831889</v>
+      </c>
+      <c r="GB15">
+        <f t="shared" ref="GB15" si="142">GB14/GA14</f>
+        <v>1.0069890081962005</v>
+      </c>
+      <c r="GC15">
+        <f t="shared" ref="GC15" si="143">GC14/GB14</f>
+        <v>1.0459177235156791</v>
+      </c>
+      <c r="GD15">
+        <f t="shared" ref="GD15" si="144">GD14/GC14</f>
+        <v>1.0000100542426391</v>
+      </c>
+      <c r="GE15">
+        <f t="shared" ref="GE15" si="145">GE14/GD14</f>
+        <v>0.99580239590193198</v>
+      </c>
+      <c r="GF15">
+        <f t="shared" ref="GF15" si="146">GF14/GE14</f>
+        <v>0.99834417026775968</v>
+      </c>
+      <c r="GG15">
+        <f t="shared" ref="GG15" si="147">GG14/GF14</f>
+        <v>1.0283222087378641</v>
+      </c>
+      <c r="GH15">
+        <f t="shared" ref="GH15" si="148">GH14/GG14</f>
+        <v>1.0152634969340237</v>
+      </c>
+      <c r="GI15">
+        <f t="shared" ref="GI15" si="149">GI14/GH14</f>
+        <v>1.0034436829486839</v>
+      </c>
+      <c r="GJ15">
+        <f t="shared" ref="GJ15" si="150">GJ14/GI14</f>
+        <v>0.98770610495424171</v>
+      </c>
+      <c r="GK15">
+        <f t="shared" ref="GK15" si="151">GK14/GJ14</f>
+        <v>0.9901138157348176</v>
+      </c>
+      <c r="GL15">
+        <f t="shared" ref="GL15" si="152">GL14/GK14</f>
+        <v>1.0239232796659528</v>
+      </c>
+      <c r="GM15">
+        <f t="shared" ref="GM15" si="153">GM14/GL14</f>
+        <v>1.02684945505729</v>
+      </c>
+      <c r="GN15">
+        <f t="shared" ref="GN15" si="154">GN14/GM14</f>
+        <v>1.009782981180436</v>
+      </c>
+      <c r="GO15">
+        <f t="shared" ref="GO15" si="155">GO14/GN14</f>
+        <v>1.0367956412390111</v>
+      </c>
+      <c r="GP15">
+        <f t="shared" ref="GP15" si="156">GP14/GO14</f>
+        <v>1.0226973123727705</v>
+      </c>
+      <c r="GQ15">
+        <f t="shared" ref="GQ15" si="157">GQ14/GP14</f>
+        <v>1.0602628856035494</v>
       </c>
     </row>
   </sheetData>
